--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 32842-2024</t>
+          <t>A 145-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45516.61791666667</v>
+        <v>46020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -793,119 +793,119 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 32842-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45516.61791666667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 145-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 10864-2021</t>
+          <t>A 15665-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44259</v>
+        <v>44286</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,13 +1213,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1256,14 +1251,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 15665-2021</t>
+          <t>A 10864-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1275,8 +1270,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G12" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18616-2021</t>
+          <t>A 54305-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44306</v>
+        <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,13 +2150,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2193,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54305-2021</t>
+          <t>A 18616-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44472.45936342593</v>
+        <v>44306</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2212,8 +2207,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44746</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>44746</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2384,7 +2384,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2421,14 +2421,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2498,7 +2498,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2535,14 +2535,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45231</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2555,7 +2555,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2592,14 +2592,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45259</v>
+        <v>45565</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2611,13 +2611,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2654,14 +2649,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2679,7 +2674,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2716,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45302</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2736,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2773,14 +2768,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45733</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2793,7 +2788,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2830,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45888</v>
+        <v>45259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2849,8 +2844,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>45545.66203703704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2944,14 +2944,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44845</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3001,14 +3001,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>44923</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3058,14 +3058,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3115,14 +3115,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 6528-2021</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44235</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3134,13 +3134,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3177,14 +3172,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 6540-2021</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44235</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3202,7 +3197,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3239,14 +3234,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45302</v>
+        <v>45817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3259,7 +3254,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.8</v>
+        <v>6.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3296,14 +3291,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45981</v>
+        <v>45888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3316,7 +3311,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3360,7 +3355,7 @@
         <v>45602</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3410,14 +3405,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44362</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3429,13 +3424,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>12.8</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3472,14 +3462,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45733</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3492,7 +3482,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3536,7 +3526,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3586,14 +3576,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>44939</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3606,7 +3596,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3643,14 +3633,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44868</v>
+        <v>45259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3662,8 +3652,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3700,14 +3695,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3719,8 +3714,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3757,14 +3757,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 6528-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45930</v>
+        <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3776,8 +3776,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3814,14 +3819,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3834,7 +3839,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3871,14 +3876,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44875</v>
+        <v>44868</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3890,13 +3895,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3933,14 +3933,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3953,7 +3953,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3990,14 +3990,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44939</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4010,7 +4010,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4047,14 +4047,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45107</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4067,7 +4067,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>6.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4104,14 +4104,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4123,8 +4123,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4161,14 +4166,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45930</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4181,7 +4186,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4218,14 +4223,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4238,7 +4243,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4275,14 +4280,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 6540-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45608</v>
+        <v>44235</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4294,8 +4299,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4332,14 +4342,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>46034</v>
+        <v>44882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4351,8 +4361,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4389,14 +4404,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45702</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4408,8 +4423,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4446,14 +4466,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45259</v>
+        <v>44882</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4508,14 +4528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4525,11 +4545,6 @@
       <c r="E68" t="inlineStr">
         <is>
           <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G68" t="n">
@@ -4570,14 +4585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44992</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4589,13 +4604,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4632,14 +4642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4652,7 +4662,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4689,14 +4699,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45314</v>
+        <v>45610</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4708,13 +4718,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4751,14 +4756,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4771,7 +4776,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4808,14 +4813,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44981</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4833,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4865,14 +4870,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4885,7 +4890,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4929,7 +4934,7 @@
         <v>44312.60537037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4979,14 +4984,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4998,13 +5003,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45702</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5060,13 +5060,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5098,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45702</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5122,13 +5117,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5165,14 +5155,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5184,8 +5174,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5222,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5241,8 +5236,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5279,14 +5279,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45003</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5336,14 +5336,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5356,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5393,14 +5393,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45219</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5412,13 +5412,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5455,14 +5450,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45219</v>
+        <v>44875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5480,7 +5475,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5517,14 +5512,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45219</v>
+        <v>44977</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5536,13 +5531,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5579,14 +5569,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45219</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5598,8 +5588,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5636,14 +5631,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45219</v>
+        <v>45981</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5655,13 +5650,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5698,14 +5688,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45107</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5708,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5755,14 +5745,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45394</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5765,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5812,14 +5802,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44882</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5831,13 +5821,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5874,14 +5859,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44746</v>
+        <v>45702</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5893,8 +5878,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5931,14 +5921,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>44981</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5951,7 +5941,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5988,14 +5978,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44923</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6008,7 +5998,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6045,14 +6035,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>44592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6065,7 +6055,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6102,14 +6092,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45106</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6121,13 +6111,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6164,14 +6149,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45259</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6183,13 +6168,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6226,14 +6206,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45370</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6245,13 +6225,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6288,14 +6263,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44882</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6307,13 +6282,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6350,14 +6320,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45565</v>
+        <v>45003</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6370,7 +6340,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6407,14 +6377,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44592</v>
+        <v>46034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6427,7 +6397,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6464,14 +6434,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45302</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6484,7 +6454,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6521,14 +6491,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44992</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6540,13 +6510,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6583,14 +6548,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45259</v>
+        <v>45302</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6602,13 +6567,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6645,14 +6605,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6664,8 +6624,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6702,14 +6667,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45702</v>
+        <v>45219</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6727,7 +6692,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6764,14 +6729,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>44362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6784,7 +6749,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6821,14 +6786,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45231</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6841,7 +6806,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6878,14 +6843,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6898,7 +6863,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.3</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6935,14 +6900,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>44362</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6954,8 +6919,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>12.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6992,14 +6962,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7011,8 +6981,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7049,14 +7024,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45107</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7069,7 +7044,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7106,14 +7081,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>44845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7126,7 +7101,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.4</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7163,14 +7138,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45702</v>
+        <v>45370</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7225,14 +7200,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44977</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7245,7 +7220,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7282,14 +7257,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7302,7 +7277,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7339,14 +7314,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44362</v>
+        <v>45219</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7358,8 +7333,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>10.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7396,14 +7376,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45219</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7415,8 +7395,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7453,14 +7438,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7473,7 +7458,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7510,14 +7495,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44446</v>
+        <v>45702</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7529,8 +7514,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7567,14 +7557,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45265</v>
+        <v>45702</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7592,7 +7582,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7629,14 +7619,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>44746</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7649,7 +7639,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7686,14 +7676,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44879</v>
+        <v>44992</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7711,7 +7701,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7748,14 +7738,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45394</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7768,7 +7758,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7805,14 +7795,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>44446</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7825,7 +7815,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7862,14 +7852,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45265</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7881,8 +7871,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>6.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7919,14 +7914,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45756</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7939,7 +7934,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7976,14 +7971,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45817</v>
+        <v>44879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7995,8 +7990,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8033,14 +8033,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45826</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8053,7 +8053,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8090,14 +8090,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8147,14 +8147,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8167,7 +8167,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8204,14 +8204,14 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45756</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8224,7 +8224,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>46020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44286</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44306</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>45751.36584490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44746</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45029.36196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45701.47834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45078.30322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>45231</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45565</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45302</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45397.34383101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45545.66203703704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>44636.84741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>44923</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>45888.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45544.45065972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45894.86383101852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>45817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>45602</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45733.83363425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>45733</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44939</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>45259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45583.47193287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44868</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45925.39194444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45478.57881944445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45107</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45930</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44945.62488425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44235</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45702</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44882</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45845.66458333333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45940.59828703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45608</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45610</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45356.38424768519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45849.52086805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44312.60537037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45862.5662962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45078.29748842592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45958.64665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45701.64104166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45958.83685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>45373.64611111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44524.90207175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44977</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45219</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>45981</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44323.26083333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45987.39408564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>45565.42112268518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45702</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44981</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>46043.38798611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45369.51898148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45161.7861574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>45356.48212962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>46007.87944444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45003</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>46034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45062.50630787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>45145.61299768519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45302</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45219</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45161.78365740741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45235.41175925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44362</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>45751.36126157407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45370</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44923.43637731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45219</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45219</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45163.59946759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45702</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45702</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44746</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44992</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45394</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44446</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45265</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45511.66358796296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>44879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45666.41855324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>45477.58034722223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45478.56774305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45756</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>46020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44286</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>44259</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44306</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
         <v>45751.36584490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2314,7 +2314,7 @@
         <v>44746</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45029.36196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>45701.47834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>45078.30322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>45231</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45565</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45302</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45397.34383101852</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45545.66203703704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>44636.84741898148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         <v>44923</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3065,7 +3065,7 @@
         <v>45888.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3122,7 +3122,7 @@
         <v>45544.45065972222</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45894.86383101852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3241,7 +3241,7 @@
         <v>45817</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3298,7 +3298,7 @@
         <v>45888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3355,7 +3355,7 @@
         <v>45602</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3412,7 +3412,7 @@
         <v>45733.83363425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>45733</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3526,7 +3526,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3583,7 +3583,7 @@
         <v>44939</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         <v>45259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>44235</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>45583.47193287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>44868</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45925.39194444445</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45478.57881944445</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45107</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4173,7 +4173,7 @@
         <v>45930</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4230,7 +4230,7 @@
         <v>44945.62488425926</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>44235</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>44882</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4411,7 +4411,7 @@
         <v>45702</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44882</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4535,7 +4535,7 @@
         <v>45845.66458333333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>45940.59828703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>45608</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>45610</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>45826</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4820,7 +4820,7 @@
         <v>45356.38424768519</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4877,7 +4877,7 @@
         <v>45849.52086805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4934,7 +4934,7 @@
         <v>44312.60537037037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
         <v>45862.5662962963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5048,7 +5048,7 @@
         <v>45078.29748842592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45958.64665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45701.64104166667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5224,7 +5224,7 @@
         <v>45958.83685185185</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>45373.64611111111</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5343,7 +5343,7 @@
         <v>44524.90207175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5400,7 +5400,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5457,7 +5457,7 @@
         <v>44875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5519,7 +5519,7 @@
         <v>44977</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5576,7 +5576,7 @@
         <v>45219</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>45981</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>44323.26083333333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45987.39408564815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>45565.42112268518</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45702</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>44981</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5985,7 +5985,7 @@
         <v>46043.38798611111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>44592</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6099,7 +6099,7 @@
         <v>45369.51898148148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45161.7861574074</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>45356.48212962963</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6270,7 +6270,7 @@
         <v>46007.87944444444</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6327,7 +6327,7 @@
         <v>45003</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6384,7 +6384,7 @@
         <v>46034</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6441,7 +6441,7 @@
         <v>45062.50630787037</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6498,7 +6498,7 @@
         <v>45145.61299768519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6555,7 +6555,7 @@
         <v>45302</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6612,7 +6612,7 @@
         <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6674,7 +6674,7 @@
         <v>45219</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6736,7 +6736,7 @@
         <v>44362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6793,7 +6793,7 @@
         <v>45161.78365740741</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6850,7 +6850,7 @@
         <v>45235.41175925926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6907,7 +6907,7 @@
         <v>44362</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6969,7 +6969,7 @@
         <v>45106</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7031,7 +7031,7 @@
         <v>45751.36126157407</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7088,7 +7088,7 @@
         <v>44845</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7145,7 +7145,7 @@
         <v>45370</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>44923.43637731481</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>45107</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45219</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45219</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>45163.59946759259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45702</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45702</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>44746</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44992</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45394</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>44446</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45265</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7921,7 +7921,7 @@
         <v>45511.66358796296</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7978,7 +7978,7 @@
         <v>44879</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8040,7 +8040,7 @@
         <v>45666.41855324074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8097,7 +8097,7 @@
         <v>45477.58034722223</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8154,7 +8154,7 @@
         <v>45478.56774305556</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8211,7 +8211,7 @@
         <v>45756</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z131"/>
+  <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 145-2026</t>
+          <t>A 32842-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46020</v>
+        <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -793,119 +793,119 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 145-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 32842-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45516.61791666667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1194,14 +1194,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 15665-2021</t>
+          <t>A 10864-2021</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44286</v>
+        <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1213,8 +1213,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G11" t="n">
-        <v>5.7</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1251,14 +1256,14 @@
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A 10864-2021</t>
+          <t>A 15665-2021</t>
         </is>
       </c>
       <c r="B12" s="1" t="n">
-        <v>44259</v>
+        <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1270,13 +1275,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G12" t="n">
-        <v>0.8</v>
+        <v>5.7</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2131,14 +2131,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 54305-2021</t>
+          <t>A 18616-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44472.45936342593</v>
+        <v>44306</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,8 +2150,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2188,14 +2193,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18616-2021</t>
+          <t>A 54305-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44306</v>
+        <v>44472.45936342593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,13 +2212,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2250,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>44845</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2307,14 +2307,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44746</v>
+        <v>45302</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2327,7 +2327,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2364,14 +2364,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>44362</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2383,8 +2383,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>12.8</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2421,14 +2426,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2441,7 +2446,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2478,14 +2483,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>44868</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2498,7 +2503,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2535,14 +2540,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45231</v>
+        <v>44875</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2554,8 +2559,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2592,14 +2602,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45565</v>
+        <v>44939</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2612,7 +2622,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2649,14 +2659,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45314</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2668,13 +2678,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2711,14 +2716,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45302</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2731,7 +2736,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2768,14 +2773,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2788,7 +2793,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2830,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
         <v>45259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2850,7 +2855,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2887,14 +2892,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2906,8 +2911,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2944,14 +2954,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45888</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2964,7 +2974,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3001,14 +3011,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44923</v>
+        <v>45826</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3021,7 +3031,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3058,14 +3068,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3078,7 +3088,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3115,14 +3125,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45314</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3134,8 +3144,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3172,14 +3187,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3191,13 +3206,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>4.6</v>
+        <v>3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3234,14 +3244,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45817</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3254,7 +3264,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>6.4</v>
+        <v>0.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3291,14 +3301,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45888</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3311,7 +3321,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3355,7 +3365,7 @@
         <v>45602</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3405,14 +3415,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3425,7 +3435,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3462,14 +3472,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45733</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3481,8 +3491,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3526,7 +3541,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3576,14 +3591,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44939</v>
+        <v>45219</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3595,8 +3610,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3633,14 +3653,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45259</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3652,13 +3672,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3695,14 +3710,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45259</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3714,13 +3729,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3757,14 +3767,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 6528-2021</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44235</v>
+        <v>45930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3776,13 +3786,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3819,14 +3824,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>44746</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3839,7 +3844,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3876,14 +3881,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44868</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3896,7 +3901,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3933,14 +3938,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3953,7 +3958,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3990,14 +3995,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4010,7 +4015,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.8</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4047,14 +4052,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45107</v>
+        <v>45608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4067,7 +4072,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4104,14 +4109,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45259</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4123,13 +4128,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4166,14 +4166,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45930</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4223,14 +4223,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4242,8 +4242,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4280,14 +4285,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 6540-2021</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44235</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4299,13 +4304,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>4.8</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4342,14 +4342,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44882</v>
+        <v>45733</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4361,13 +4361,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4404,14 +4399,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45702</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4423,13 +4418,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4466,14 +4456,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44882</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4485,13 +4475,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4528,14 +4513,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4548,7 +4533,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4585,14 +4570,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4605,7 +4590,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4642,14 +4627,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45608</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4661,8 +4646,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4699,14 +4689,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45610</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4719,7 +4709,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4756,14 +4746,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45826</v>
+        <v>44992</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4775,8 +4765,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4813,14 +4808,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4833,7 +4828,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4870,14 +4865,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4890,7 +4885,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4927,14 +4922,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>44981</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4947,7 +4942,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>5.6</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4984,14 +4979,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45702</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5003,8 +4998,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45702</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5060,8 +5060,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5098,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5118,7 +5123,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5155,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5174,13 +5179,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45003</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5236,13 +5236,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5279,14 +5274,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>45981</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5299,7 +5294,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5336,14 +5331,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5356,7 +5351,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5393,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5413,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5450,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44875</v>
+        <v>45219</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5475,7 +5470,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>10.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5512,14 +5507,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44977</v>
+        <v>45219</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5531,8 +5526,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5576,7 +5576,7 @@
         <v>45219</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5631,14 +5631,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45981</v>
+        <v>45107</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5688,14 +5688,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5745,14 +5745,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45394</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5802,14 +5802,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45702</v>
+        <v>44882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5921,14 +5921,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44981</v>
+        <v>44746</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5978,14 +5978,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6035,14 +6035,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44592</v>
+        <v>44923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6092,14 +6092,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6149,14 +6149,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45106</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6168,8 +6168,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6206,14 +6211,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6225,8 +6230,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6263,14 +6273,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45370</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6282,8 +6292,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6320,14 +6335,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45003</v>
+        <v>46034</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6340,7 +6355,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6377,14 +6392,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46034</v>
+        <v>44882</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6396,8 +6411,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6434,14 +6454,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6454,7 +6474,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6491,14 +6511,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>44592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6511,7 +6531,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6555,7 +6575,7 @@
         <v>45302</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6612,7 +6632,7 @@
         <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6667,14 +6687,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45219</v>
+        <v>45259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6692,7 +6712,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6729,14 +6749,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44362</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6749,7 +6769,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6786,14 +6806,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45702</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6805,8 +6825,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6843,14 +6868,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6863,7 +6888,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6900,14 +6925,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44362</v>
+        <v>45231</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6919,13 +6944,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>12.8</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6962,14 +6982,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45106</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6981,13 +7001,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7024,14 +7039,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7044,7 +7059,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7081,14 +7096,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44845</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7101,7 +7116,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7138,14 +7153,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45370</v>
+        <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7157,13 +7172,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7200,14 +7210,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7220,7 +7230,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7257,14 +7267,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45107</v>
+        <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7276,8 +7286,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7314,14 +7329,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45219</v>
+        <v>44977</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7333,13 +7348,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>10.2</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7376,14 +7386,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45219</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7395,13 +7405,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7438,14 +7443,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>44362</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7458,7 +7463,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7495,14 +7500,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45702</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7514,13 +7519,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7557,14 +7557,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45702</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7576,13 +7576,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7619,14 +7614,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44746</v>
+        <v>44446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7639,7 +7634,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7676,14 +7671,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44992</v>
+        <v>45265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7701,7 +7696,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7738,14 +7733,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45394</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7758,7 +7753,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7795,14 +7790,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44446</v>
+        <v>44879</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7812,6 +7807,11 @@
       <c r="E124" t="inlineStr">
         <is>
           <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -7852,14 +7852,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45265</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7871,13 +7871,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7914,14 +7909,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7934,7 +7929,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7971,14 +7966,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44879</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7990,13 +7985,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8033,14 +8023,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45756</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8053,7 +8043,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8087,17 +8077,17 @@
       </c>
       <c r="R128" s="2" t="inlineStr"/>
     </row>
-    <row r="129" ht="15" customHeight="1">
+    <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45817</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8110,7 +8100,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.2</v>
+        <v>6.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8143,120 +8133,6 @@
         <v>0</v>
       </c>
       <c r="R129" s="2" t="inlineStr"/>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>A 28736-2024</t>
-        </is>
-      </c>
-      <c r="B130" s="1" t="n">
-        <v>45478.56774305556</v>
-      </c>
-      <c r="C130" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G130" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>0</v>
-      </c>
-      <c r="R130" s="2" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>A 17321-2025</t>
-        </is>
-      </c>
-      <c r="B131" s="1" t="n">
-        <v>45756</v>
-      </c>
-      <c r="C131" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G131" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>0</v>
-      </c>
-      <c r="R131" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 32842-2024</t>
+          <t>A 145-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45516.61791666667</v>
+        <v>46020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -793,119 +793,119 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 32842-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45516.61791666667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 145-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44306</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44845</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2269,8 +2269,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2307,14 +2312,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45302</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2327,7 +2332,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2364,14 +2369,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44362</v>
+        <v>44746</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2383,13 +2388,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G31" t="n">
-        <v>12.8</v>
+        <v>6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2426,14 +2426,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2483,14 +2483,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44868</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2540,14 +2540,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44875</v>
+        <v>45888</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2559,13 +2559,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2602,14 +2597,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44939</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2622,7 +2617,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.5</v>
+        <v>4.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2659,14 +2654,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45231</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2679,7 +2674,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2716,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45565</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2736,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2780,7 +2775,7 @@
         <v>45888.48535879629</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2830,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45259</v>
+        <v>45702</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2855,7 +2850,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2892,14 +2887,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45702</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2917,7 +2912,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2954,14 +2949,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45888</v>
+        <v>44746</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2974,7 +2969,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3011,14 +3006,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45826</v>
+        <v>45314</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3030,8 +3025,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>4.5</v>
+        <v>2.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3068,14 +3068,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>44992</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3087,8 +3087,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3125,14 +3130,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45314</v>
+        <v>45394</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3144,13 +3149,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3187,14 +3187,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>44446</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3207,7 +3207,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3244,14 +3244,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45602</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3301,14 +3301,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45265</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3320,8 +3320,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3358,14 +3363,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45602</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3378,7 +3383,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3415,14 +3420,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45302</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3435,7 +3440,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>5.6</v>
+        <v>1.8</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3472,14 +3477,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3491,13 +3496,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3534,14 +3534,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>44879</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3553,8 +3553,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3591,14 +3596,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45219</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3610,13 +3615,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3653,14 +3653,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3710,14 +3710,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3730,7 +3730,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3767,14 +3767,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45930</v>
+        <v>45259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3786,8 +3786,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3824,14 +3829,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44746</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3844,7 +3849,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3881,14 +3886,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3901,7 +3906,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3938,14 +3943,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3958,7 +3963,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3995,14 +4000,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45756</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4015,7 +4020,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4052,14 +4057,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45608</v>
+        <v>44923</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4072,7 +4077,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4109,14 +4114,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4129,7 +4134,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4166,14 +4171,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4186,7 +4191,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4223,14 +4228,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45259</v>
+        <v>45817</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4242,13 +4247,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>6.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4292,7 +4292,7 @@
         <v>45733.83363425926</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4349,7 +4349,7 @@
         <v>45733</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4399,14 +4399,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>44939</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4419,7 +4419,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4456,14 +4456,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4475,8 +4475,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4513,14 +4518,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45259</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4532,8 +4537,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4570,14 +4580,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4590,7 +4600,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4627,14 +4637,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>44868</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4646,13 +4656,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4689,14 +4694,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45930</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4709,7 +4714,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4746,14 +4751,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44992</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4765,13 +4770,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4808,14 +4808,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45610</v>
+        <v>45107</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4828,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4865,14 +4865,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4884,8 +4884,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4922,14 +4927,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44981</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4947,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4979,14 +4984,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45702</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4998,13 +5003,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5041,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45702</v>
+        <v>45826</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5060,13 +5060,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5098,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>44882</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5122,8 +5117,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5160,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5180,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5217,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45003</v>
+        <v>45702</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5236,8 +5236,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5274,14 +5279,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45981</v>
+        <v>44882</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5293,8 +5298,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5331,14 +5341,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45610</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5361,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5398,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5418,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5455,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45219</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5464,13 +5474,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>10.2</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5507,14 +5512,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45219</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5526,13 +5531,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5569,14 +5569,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45219</v>
+        <v>45608</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5588,13 +5588,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5631,14 +5626,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45107</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5651,7 +5646,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5688,14 +5683,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5708,7 +5703,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5745,14 +5740,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45394</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5764,8 +5759,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5802,14 +5802,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44882</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5878,13 +5878,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5921,14 +5916,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44746</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5941,7 +5936,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5978,14 +5973,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5998,7 +5993,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6035,14 +6030,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44923</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6054,8 +6049,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6092,14 +6092,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>44875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6111,8 +6111,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6149,14 +6154,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45106</v>
+        <v>44977</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6168,13 +6173,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6211,14 +6211,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45259</v>
+        <v>45219</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6236,7 +6236,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6273,14 +6273,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45370</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6292,13 +6292,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6335,14 +6330,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46034</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6355,7 +6350,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6392,14 +6387,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44882</v>
+        <v>45981</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6411,13 +6406,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6454,14 +6444,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45565</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6474,7 +6464,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6511,14 +6501,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44592</v>
+        <v>45702</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6530,8 +6520,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6568,14 +6563,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45302</v>
+        <v>44981</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6588,7 +6583,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6625,14 +6620,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44992</v>
+        <v>44592</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6644,13 +6639,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6687,14 +6677,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45259</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6706,13 +6696,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6749,14 +6734,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6769,7 +6754,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6806,14 +6791,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45702</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6825,13 +6810,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6868,14 +6848,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6888,7 +6868,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6925,14 +6905,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45231</v>
+        <v>45003</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6945,7 +6925,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6982,14 +6962,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7002,7 +6982,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7039,14 +7019,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7059,7 +7039,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7096,14 +7076,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7116,7 +7096,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7153,14 +7133,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45107</v>
+        <v>45302</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7173,7 +7153,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7210,14 +7190,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>44992</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7229,8 +7209,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7267,14 +7252,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45702</v>
+        <v>46034</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7286,13 +7271,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7329,14 +7309,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44977</v>
+        <v>45219</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7348,8 +7328,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7386,14 +7371,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>44362</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7406,7 +7391,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7443,14 +7428,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44362</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7463,7 +7448,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7500,14 +7485,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7520,7 +7505,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7557,14 +7542,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>44362</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7576,8 +7561,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>2.1</v>
+        <v>12.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7614,14 +7604,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44446</v>
+        <v>45106</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7633,8 +7623,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7671,14 +7666,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45265</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7690,13 +7685,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>6.8</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7733,14 +7723,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>44845</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7753,7 +7743,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7790,14 +7780,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44879</v>
+        <v>45370</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7815,7 +7805,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7852,14 +7842,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7872,7 +7862,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7909,14 +7899,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>45107</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7929,7 +7919,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7966,14 +7956,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45219</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7985,8 +7975,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>10.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8023,14 +8018,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45756</v>
+        <v>45219</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8042,8 +8037,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45817</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.4</v>
+        <v>2.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 145-2026</t>
+          <t>A 32842-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46020</v>
+        <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -793,119 +793,119 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 145-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 32842-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45516.61791666667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 29748-2021</t>
+          <t>A 26501-2022</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44362</v>
+        <v>44739</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60021-2021</t>
+          <t>A 29748-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44494.99633101852</v>
+        <v>44362</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1546,14 +1546,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30753-2021</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44365.46269675926</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1603,14 +1603,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16048-2021</t>
+          <t>A 18514-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,8 +1622,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1660,14 +1665,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18514-2021</t>
+          <t>A 60021-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44305</v>
+        <v>44494.99633101852</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,13 +1684,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,14 +1779,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8683-2021</t>
+          <t>A 30753-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44245</v>
+        <v>44365.46269675926</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1798,13 +1798,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1841,14 +1836,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26501-2022</t>
+          <t>A 16048-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44739</v>
+        <v>44287</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>0.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1898,14 +1893,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 31645-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1917,8 +1912,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1955,14 +1955,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31645-2021</t>
+          <t>A 52729-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44369</v>
+        <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1974,13 +1974,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2017,14 +2012,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52729-2021</t>
+          <t>A 4989-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44467.29098379629</v>
+        <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2037,7 +2032,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2074,14 +2069,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4989-2022</t>
+          <t>A 18616-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44593</v>
+        <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,8 +2088,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2131,14 +2131,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18616-2021</t>
+          <t>A 54305-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44306</v>
+        <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,13 +2150,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2193,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54305-2021</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44472.45936342593</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2213,7 +2208,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2250,14 +2245,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2269,13 +2264,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2312,14 +2302,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2332,7 +2322,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2369,14 +2359,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44746</v>
+        <v>44868</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2389,7 +2379,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2426,14 +2416,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45259</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2445,8 +2435,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2483,14 +2478,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 8683-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>44245</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2502,8 +2497,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>13</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2540,14 +2540,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45888</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2560,7 +2560,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2597,14 +2597,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45733</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2617,7 +2617,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2654,14 +2654,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45231</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2711,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45565</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2768,14 +2768,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45702</v>
+        <v>44845</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2844,13 +2844,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2887,14 +2882,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45702</v>
+        <v>45302</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2904,11 +2899,6 @@
       <c r="E40" t="inlineStr">
         <is>
           <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -2949,14 +2939,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44746</v>
+        <v>44875</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2968,8 +2958,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3006,14 +3001,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45314</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3025,13 +3020,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>2.6</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3068,14 +3058,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44992</v>
+        <v>44939</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3087,13 +3077,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3130,14 +3115,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45394</v>
+        <v>44992</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3149,8 +3134,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3187,14 +3177,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44446</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3207,7 +3197,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3244,14 +3234,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45602</v>
+        <v>44362</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3263,8 +3253,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.5</v>
+        <v>12.8</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3301,14 +3296,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45265</v>
+        <v>45610</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3320,13 +3315,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3363,14 +3353,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3383,7 +3373,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3420,14 +3410,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45302</v>
+        <v>44981</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3440,7 +3430,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3477,14 +3467,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3497,7 +3487,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3534,14 +3524,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44879</v>
+        <v>45302</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3553,13 +3543,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3596,14 +3581,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45702</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3615,8 +3600,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3653,14 +3643,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45702</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3672,8 +3662,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3710,14 +3705,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3730,7 +3725,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3767,14 +3762,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45259</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3786,13 +3781,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G55" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3829,14 +3819,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>45003</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3849,7 +3839,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3886,14 +3876,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45259</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3905,8 +3895,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3943,14 +3938,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3963,7 +3958,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4000,14 +3995,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45756</v>
+        <v>45314</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4019,8 +4014,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4057,14 +4057,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44923</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4114,14 +4114,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>44992</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4133,8 +4133,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4171,14 +4176,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45219</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4190,8 +4195,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>10.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4228,14 +4238,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45817</v>
+        <v>45219</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4247,8 +4257,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4285,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4305,7 +4320,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4342,14 +4357,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45733</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4362,7 +4377,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>5.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4399,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44939</v>
+        <v>45219</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4418,8 +4433,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4456,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
         <v>45259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4481,7 +4501,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4518,14 +4538,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45259</v>
+        <v>45826</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4537,13 +4557,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>4.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4580,14 +4595,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4600,7 +4615,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4637,14 +4652,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44868</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4657,7 +4672,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4694,14 +4709,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45930</v>
+        <v>45107</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4714,7 +4729,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4751,14 +4766,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4770,8 +4785,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>0.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4808,14 +4828,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45107</v>
+        <v>45394</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4828,7 +4848,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.2</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4865,14 +4885,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45259</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4884,13 +4904,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4927,14 +4942,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4947,7 +4962,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4984,14 +4999,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45219</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5003,8 +5018,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5041,14 +5061,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45826</v>
+        <v>44882</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5060,8 +5080,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5098,14 +5123,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44882</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5117,13 +5142,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5160,14 +5180,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>44746</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5180,7 +5200,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5217,14 +5237,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45702</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5236,13 +5256,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5279,14 +5294,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44882</v>
+        <v>44746</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5298,13 +5313,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5341,14 +5351,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45610</v>
+        <v>44923</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5361,7 +5371,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5398,14 +5408,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5418,7 +5428,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5455,14 +5465,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45106</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5474,8 +5484,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5512,14 +5527,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45259</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5531,8 +5546,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5569,14 +5589,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45608</v>
+        <v>45702</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5588,8 +5608,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5626,14 +5651,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45370</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5645,8 +5670,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>5.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5683,14 +5713,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5703,7 +5733,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5740,14 +5770,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5757,11 +5787,6 @@
       <c r="E89" t="inlineStr">
         <is>
           <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G89" t="n">
@@ -5802,14 +5827,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5822,7 +5847,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.4</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5859,14 +5884,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5879,7 +5904,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5916,14 +5941,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45231</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5936,7 +5961,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5973,14 +5998,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>44882</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5992,8 +6017,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6030,14 +6060,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45565</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6049,13 +6079,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6092,14 +6117,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44875</v>
+        <v>44592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6111,13 +6136,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6154,14 +6174,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44977</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6174,7 +6194,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6211,14 +6231,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45219</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6236,7 +6256,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6273,14 +6293,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45888</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6293,7 +6313,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6330,14 +6350,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6350,7 +6370,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6387,14 +6407,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45981</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6407,7 +6427,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6444,14 +6464,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45107</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6464,7 +6484,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6501,14 +6521,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45702</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6520,13 +6540,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6563,14 +6578,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44981</v>
+        <v>45702</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6582,8 +6597,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6620,14 +6640,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44592</v>
+        <v>44977</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6640,7 +6660,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6677,14 +6697,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6697,7 +6717,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6734,14 +6754,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>44362</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6754,7 +6774,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6791,14 +6811,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45602</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6811,7 +6831,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6848,14 +6868,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6868,7 +6888,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6905,14 +6925,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45003</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6962,14 +6982,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6982,7 +7002,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7019,14 +7039,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>44446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7039,7 +7059,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7076,14 +7096,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7096,7 +7116,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7133,14 +7153,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45302</v>
+        <v>45265</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7152,8 +7172,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>2.9</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7190,14 +7215,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44992</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7209,13 +7234,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7252,14 +7272,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>46034</v>
+        <v>45930</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7272,7 +7292,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7309,14 +7329,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45219</v>
+        <v>44879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7334,7 +7354,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7371,14 +7391,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44362</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7391,7 +7411,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7428,14 +7448,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7448,7 +7468,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>2.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7485,14 +7505,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7505,7 +7525,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7542,14 +7562,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44362</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7561,13 +7581,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7604,14 +7619,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45106</v>
+        <v>45608</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7623,13 +7638,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7666,14 +7676,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7686,7 +7696,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>2.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7723,14 +7733,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44845</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7742,8 +7752,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7780,14 +7795,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45370</v>
+        <v>45756</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7799,13 +7814,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7842,14 +7852,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45981</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7862,7 +7872,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7899,14 +7909,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45107</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7919,7 +7929,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7956,14 +7966,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45219</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7975,13 +7985,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>10.2</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8018,14 +8023,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45219</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8037,13 +8042,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>46034</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1432,14 +1432,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 26501-2022</t>
+          <t>A 29748-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44739</v>
+        <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 29748-2021</t>
+          <t>A 60021-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44362</v>
+        <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1546,14 +1546,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 30753-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1603,14 +1603,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18514-2021</t>
+          <t>A 16048-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44305</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,13 +1622,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1665,14 +1660,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 60021-2021</t>
+          <t>A 18514-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44494.99633101852</v>
+        <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1684,8 +1679,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,14 +1779,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 30753-2021</t>
+          <t>A 8683-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44365.46269675926</v>
+        <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1798,8 +1798,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.5</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1836,14 +1841,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 16048-2021</t>
+          <t>A 26501-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44287</v>
+        <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1856,7 +1861,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.3</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1893,14 +1898,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31645-2021</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44369</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1912,13 +1917,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1955,14 +1955,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52729-2021</t>
+          <t>A 31645-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44467.29098379629</v>
+        <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1974,8 +1974,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2012,14 +2017,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4989-2022</t>
+          <t>A 52729-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44593</v>
+        <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2037,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>0.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2069,14 +2074,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 18616-2021</t>
+          <t>A 4989-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44306</v>
+        <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2088,13 +2093,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>3.4</v>
+        <v>6.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2131,14 +2131,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 54305-2021</t>
+          <t>A 18616-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44472.45936342593</v>
+        <v>44306</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,8 +2150,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>3.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2188,14 +2193,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 54305-2021</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>44472.45936342593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2208,7 +2213,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2245,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2265,7 +2270,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2302,14 +2307,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>44746</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2322,7 +2327,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2359,14 +2364,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44868</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2379,7 +2384,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2416,14 +2421,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45259</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,13 +2440,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2478,14 +2478,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 8683-2021</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44245</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2497,13 +2497,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>13</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2540,14 +2535,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45231</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2560,7 +2555,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2597,14 +2592,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45733</v>
+        <v>45565</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2617,7 +2612,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2654,14 +2649,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2673,8 +2668,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2711,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45302</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2768,14 +2768,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45756</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44845</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45302</v>
+        <v>45259</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2901,8 +2901,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2939,14 +2944,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44875</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2958,13 +2963,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3001,14 +3001,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>46034</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3058,14 +3058,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44939</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3115,14 +3115,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44992</v>
+        <v>44923</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3134,13 +3134,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>6</v>
+        <v>3.7</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3177,14 +3172,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45817</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3197,7 +3192,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.8</v>
+        <v>6.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3234,14 +3229,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44362</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3253,13 +3248,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>12.8</v>
+        <v>2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3296,14 +3286,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45610</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3316,7 +3306,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3353,14 +3343,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3372,8 +3362,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3410,14 +3405,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44981</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3430,7 +3425,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3467,14 +3462,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45733</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3487,7 +3482,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3524,14 +3519,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45302</v>
+        <v>45888</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3544,7 +3539,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3581,14 +3576,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45702</v>
+        <v>44939</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3600,13 +3595,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3643,14 +3633,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45702</v>
+        <v>45259</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3668,7 +3658,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3705,14 +3695,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3724,8 +3714,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3762,14 +3757,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3782,7 +3777,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3819,14 +3814,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45003</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3839,7 +3834,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3876,14 +3871,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45259</v>
+        <v>44868</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3895,13 +3890,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3938,14 +3928,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45817</v>
+        <v>45826</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3958,7 +3948,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3995,14 +3985,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45314</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4014,13 +4004,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4064,7 +4049,7 @@
         <v>45478.57881944445</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4114,14 +4099,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44992</v>
+        <v>45107</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4133,13 +4118,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4176,14 +4156,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45219</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4195,13 +4175,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>10.2</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4238,14 +4213,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45219</v>
+        <v>45259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4238,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4275,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45602</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4320,7 +4295,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4357,14 +4332,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4377,7 +4352,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4389,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45219</v>
+        <v>44882</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4414,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4451,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45259</v>
+        <v>45702</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4501,7 +4476,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4538,14 +4513,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45826</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4558,7 +4533,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.5</v>
+        <v>0.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4595,14 +4570,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>44882</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4614,8 +4589,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4652,14 +4632,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45610</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4672,7 +4652,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4709,14 +4689,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45107</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4729,7 +4709,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4766,14 +4746,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4785,13 +4765,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4828,14 +4803,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45394</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4848,7 +4823,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4885,14 +4860,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4880,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4942,14 +4917,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4961,8 +4936,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4999,14 +4979,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45219</v>
+        <v>45930</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5018,13 +4998,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5061,14 +5036,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44882</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5080,13 +5055,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5123,14 +5093,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5143,7 +5113,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5180,14 +5150,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44746</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5200,7 +5170,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5237,14 +5207,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>44875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5256,8 +5226,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5294,14 +5269,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44746</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5314,7 +5289,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>6</v>
+        <v>2.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5351,14 +5326,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44923</v>
+        <v>45608</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5371,7 +5346,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5408,14 +5383,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>44977</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5428,7 +5403,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5465,14 +5440,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45106</v>
+        <v>45219</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5490,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5527,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45259</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5544,11 +5519,6 @@
       <c r="E85" t="inlineStr">
         <is>
           <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -5589,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45702</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5608,13 +5578,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5651,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45370</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5670,13 +5635,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5713,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5732,8 +5692,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5770,14 +5735,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45702</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5789,8 +5754,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5827,14 +5797,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>44981</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5847,7 +5817,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5884,14 +5854,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>44592</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5904,7 +5874,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5941,14 +5911,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45231</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5961,7 +5931,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5998,14 +5968,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44882</v>
+        <v>45981</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6017,13 +5987,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6060,14 +6025,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45565</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6080,7 +6045,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6117,14 +6082,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44592</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6137,7 +6102,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6174,14 +6139,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6194,7 +6159,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6231,14 +6196,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45003</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6250,13 +6215,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6293,14 +6253,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45888</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6313,7 +6273,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6350,14 +6310,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6370,7 +6330,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6407,14 +6367,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45302</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6427,7 +6387,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6464,14 +6424,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45107</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6484,7 +6444,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6521,14 +6481,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>44992</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6540,8 +6500,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>4.4</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6578,14 +6543,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45702</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6597,13 +6562,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6640,14 +6600,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44977</v>
+        <v>45219</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6659,8 +6619,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6697,14 +6662,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>44362</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6717,7 +6682,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6754,14 +6719,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44362</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6774,7 +6739,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6811,14 +6776,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45602</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6831,7 +6796,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6868,14 +6833,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>44362</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6887,8 +6852,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>1.7</v>
+        <v>12.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6925,14 +6895,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45106</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6944,8 +6914,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6982,14 +6957,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7002,7 +6977,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7039,14 +7014,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44446</v>
+        <v>44845</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7059,7 +7034,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7096,14 +7071,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45370</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7115,8 +7090,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7153,14 +7133,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45265</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7172,13 +7152,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7215,14 +7190,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>45107</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7235,7 +7210,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7272,14 +7247,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45930</v>
+        <v>45219</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7291,8 +7266,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>3.7</v>
+        <v>10.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7329,14 +7309,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44879</v>
+        <v>45219</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7354,7 +7334,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7391,14 +7371,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7411,7 +7391,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7448,14 +7428,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45702</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7467,8 +7447,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7505,14 +7490,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>45702</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7524,8 +7509,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7562,14 +7552,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>44746</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7582,7 +7572,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7619,14 +7609,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45608</v>
+        <v>44992</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7638,8 +7628,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7676,14 +7671,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45394</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7696,7 +7691,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7733,14 +7728,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>44446</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7752,13 +7747,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7795,14 +7785,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45756</v>
+        <v>45265</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7814,8 +7804,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>6.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7852,14 +7847,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45981</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7872,7 +7867,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7909,14 +7904,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>44879</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7928,8 +7923,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7966,14 +7966,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>46034</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 32842-2024</t>
+          <t>A 145-2026</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>45516.61791666667</v>
+        <v>46020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -793,119 +793,119 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Mattlummer</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 32842-2024</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>45516.61791666667</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Blåmossa</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 145-2026</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>46020</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Mattlummer</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44245</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1905,7 +1905,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2081,7 +2081,7 @@
         <v>44593</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44306</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2200,7 +2200,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2250,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2314,7 +2314,7 @@
         <v>44746</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45029.36196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2421,14 +2421,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>45078.30322916667</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2542,7 +2542,7 @@
         <v>45231</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2599,7 +2599,7 @@
         <v>45565</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45314</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2711,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45302</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2731,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2768,14 +2768,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45756</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2788,7 +2788,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45302</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45259</v>
+        <v>45756</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2901,13 +2901,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2944,14 +2939,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2964,7 +2959,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3001,14 +2996,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46034</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3021,7 +3016,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3058,14 +3053,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3077,8 +3072,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3115,14 +3115,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44923</v>
+        <v>45259</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3134,8 +3134,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3172,14 +3177,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45817</v>
+        <v>45888</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3192,7 +3197,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>6.4</v>
+        <v>3.1</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3229,14 +3234,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3249,7 +3254,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3286,14 +3291,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3306,7 +3311,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3343,14 +3348,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45817</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3362,13 +3367,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>4.6</v>
+        <v>6.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3405,14 +3405,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>44923</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3462,14 +3462,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45733</v>
+        <v>45602</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3519,14 +3519,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45888</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3539,7 +3539,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3576,14 +3576,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44939</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3633,14 +3633,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45259</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3652,13 +3652,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3695,14 +3690,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45259</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3714,13 +3709,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3757,14 +3747,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3777,7 +3767,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3814,14 +3804,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45733</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3834,7 +3824,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3871,14 +3861,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44868</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3891,7 +3881,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3928,14 +3918,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45826</v>
+        <v>44939</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3948,7 +3938,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3985,14 +3975,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45930</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4005,7 +3995,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4042,14 +4032,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45826</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4062,7 +4052,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4099,14 +4089,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45107</v>
+        <v>45259</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4118,8 +4108,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>6.2</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4156,14 +4151,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4176,7 +4171,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4213,14 +4208,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
         <v>45259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4238,7 +4233,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4275,14 +4270,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45602</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4295,7 +4290,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4332,14 +4327,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>44868</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4352,7 +4347,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4389,14 +4384,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44882</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4408,13 +4403,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4451,14 +4441,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45702</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4470,13 +4460,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4513,14 +4498,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45107</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4533,7 +4518,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4570,14 +4555,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44882</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4589,13 +4574,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4632,14 +4612,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45610</v>
+        <v>45608</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4652,7 +4632,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.4</v>
+        <v>4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4689,14 +4669,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45259</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4708,8 +4688,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4746,14 +4731,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4766,7 +4751,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4803,14 +4788,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>44882</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4822,8 +4807,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4860,14 +4850,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4880,7 +4870,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4917,14 +4907,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4942,7 +4932,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4979,14 +4969,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45930</v>
+        <v>45702</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4998,8 +4988,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5036,14 +5031,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>44882</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5055,8 +5050,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5093,14 +5093,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45610</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5150,14 +5150,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5170,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5207,14 +5207,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44875</v>
+        <v>46034</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5226,13 +5226,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5269,14 +5264,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5289,7 +5284,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.8</v>
+        <v>5.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5326,14 +5321,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45608</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5346,7 +5341,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5383,14 +5378,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44977</v>
+        <v>45981</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5403,7 +5398,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5440,14 +5435,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45219</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5460,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5497,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5517,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5554,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5574,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5611,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5631,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5668,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5692,13 +5687,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5735,14 +5725,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45702</v>
+        <v>44875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5760,7 +5750,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5797,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44981</v>
+        <v>44977</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5817,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5854,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44592</v>
+        <v>45219</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5873,8 +5863,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5911,14 +5906,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5931,7 +5926,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5968,14 +5963,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45981</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5988,7 +5983,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6025,14 +6020,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6045,7 +6040,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6082,14 +6077,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45702</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6101,8 +6096,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6139,14 +6139,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>44981</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6196,14 +6196,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45003</v>
+        <v>44592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6253,14 +6253,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6310,14 +6310,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6367,14 +6367,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45302</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6424,14 +6424,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45003</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6481,14 +6481,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44992</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6500,13 +6500,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6543,14 +6538,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6563,7 +6558,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6600,14 +6595,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45219</v>
+        <v>45302</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6619,13 +6614,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6662,14 +6652,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44362</v>
+        <v>44992</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6681,8 +6671,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6719,14 +6714,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45219</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6738,8 +6733,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6776,14 +6776,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>44362</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6833,14 +6833,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44362</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6852,13 +6852,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G108" t="n">
-        <v>12.8</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6895,14 +6890,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45106</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6914,13 +6909,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6957,14 +6947,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>44362</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6976,8 +6966,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>12.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7014,14 +7009,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44845</v>
+        <v>45106</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7033,8 +7028,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7071,14 +7071,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45370</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7090,13 +7090,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7133,14 +7128,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>44845</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7153,7 +7148,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7190,14 +7185,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45107</v>
+        <v>45370</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7209,8 +7204,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7247,14 +7247,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45219</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7266,13 +7266,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>10.2</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7309,14 +7304,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45219</v>
+        <v>45107</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7328,13 +7323,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7371,14 +7361,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45219</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7390,8 +7380,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>10.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7428,14 +7423,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45702</v>
+        <v>45219</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7453,7 +7448,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7490,14 +7485,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45702</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7509,13 +7504,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7552,14 +7542,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44746</v>
+        <v>45702</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7571,8 +7561,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7609,14 +7604,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44992</v>
+        <v>45702</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7634,7 +7629,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7671,14 +7666,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45394</v>
+        <v>44746</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7691,7 +7686,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7728,14 +7723,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44446</v>
+        <v>44992</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7747,8 +7742,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7785,14 +7785,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45265</v>
+        <v>45394</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7804,13 +7804,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7847,14 +7842,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>44446</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7867,7 +7862,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7904,14 +7899,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44879</v>
+        <v>45265</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7929,7 +7924,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7966,14 +7961,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7986,7 +7981,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8023,14 +8018,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>44879</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8042,8 +8037,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z129"/>
+  <dimension ref="A1:Z128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>46020</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1779,14 +1779,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 8683-2021</t>
+          <t>A 26501-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44245</v>
+        <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1798,13 +1798,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G21" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1841,14 +1836,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26501-2022</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44739</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1861,7 +1856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1898,14 +1893,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 31645-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1917,8 +1912,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1955,14 +1955,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31645-2021</t>
+          <t>A 52729-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44369</v>
+        <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1974,13 +1974,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2017,14 +2012,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52729-2021</t>
+          <t>A 4989-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44467.29098379629</v>
+        <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2037,7 +2032,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2074,14 +2069,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 4989-2022</t>
+          <t>A 18616-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44593</v>
+        <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2093,8 +2088,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>6.7</v>
+        <v>3.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2131,14 +2131,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 18616-2021</t>
+          <t>A 54305-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44306</v>
+        <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2150,13 +2150,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G27" t="n">
-        <v>3.4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2193,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 54305-2021</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44472.45936342593</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2213,7 +2208,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2250,14 +2245,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>44746</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2270,7 +2265,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2307,14 +2302,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44746</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2327,7 +2322,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2364,14 +2359,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2384,7 +2379,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2421,14 +2416,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2441,7 +2436,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2478,14 +2473,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45231</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2498,7 +2493,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2535,14 +2530,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45231</v>
+        <v>45565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2555,7 +2550,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2592,14 +2587,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45565</v>
+        <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2611,8 +2606,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2649,14 +2649,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45314</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2668,13 +2668,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2718,7 +2713,7 @@
         <v>45477.58034722223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2768,14 +2763,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>45314</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2787,8 +2782,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45302</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2882,14 +2882,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45756</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2939,14 +2939,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45756</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2959,7 +2959,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2996,14 +2996,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3015,8 +3015,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>4.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3053,14 +3058,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45302</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3072,13 +3077,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3115,14 +3115,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45259</v>
+        <v>45888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3134,13 +3134,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3177,14 +3172,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45888</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3197,7 +3192,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.1</v>
+        <v>0.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3234,14 +3229,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45981</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3254,7 +3249,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3291,14 +3286,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3310,8 +3305,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3348,14 +3348,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45817</v>
+        <v>45602</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3405,14 +3405,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44923</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3462,14 +3462,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45602</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3526,7 +3526,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3576,14 +3576,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45817</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3633,14 +3633,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>44923</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3653,7 +3653,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3690,14 +3690,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3747,14 +3747,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3804,14 +3804,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45733</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3824,7 +3824,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3861,14 +3861,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45930</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3881,7 +3881,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3918,14 +3918,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44939</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3975,14 +3975,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45930</v>
+        <v>45733</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4032,14 +4032,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45826</v>
+        <v>44939</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4089,14 +4089,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45259</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4108,13 +4108,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4151,14 +4146,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45259</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4170,8 +4165,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4215,7 +4215,7 @@
         <v>45259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4270,14 +4270,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4327,14 +4327,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44868</v>
+        <v>45826</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4384,14 +4384,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45608</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4441,14 +4441,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4498,14 +4498,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45107</v>
+        <v>44868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4555,14 +4555,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4612,14 +4612,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45608</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4669,14 +4669,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45259</v>
+        <v>45107</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4688,13 +4688,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4731,14 +4726,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4751,7 +4746,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4788,14 +4783,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44882</v>
+        <v>45259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4813,7 +4808,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4857,7 +4852,7 @@
         <v>45958.64665509259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4914,7 +4909,7 @@
         <v>45958.83685185185</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4969,14 +4964,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45702</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4988,13 +4983,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5031,14 +5021,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
         <v>44882</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5056,7 +5046,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5093,14 +5083,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45610</v>
+        <v>45702</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5112,8 +5102,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5150,14 +5145,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>44882</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5169,8 +5164,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5207,14 +5207,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>46034</v>
+        <v>45610</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5264,14 +5264,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5.6</v>
+        <v>0.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5321,14 +5321,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5378,14 +5378,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45981</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5442,7 +5442,7 @@
         <v>45701.64104166667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5497,14 +5497,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5517,7 +5517,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>45373.64611111111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5618,7 +5618,7 @@
         <v>44524.90207175926</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5675,7 +5675,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5732,7 +5732,7 @@
         <v>44875</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5794,7 +5794,7 @@
         <v>44977</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
         <v>45219</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5906,14 +5906,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5970,7 +5970,7 @@
         <v>44323.26083333333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>45565.42112268518</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6077,14 +6077,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45702</v>
+        <v>46034</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6096,13 +6096,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6139,14 +6134,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44981</v>
+        <v>45702</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6158,8 +6153,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6196,14 +6196,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44592</v>
+        <v>44981</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6216,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6253,14 +6253,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>44592</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6273,7 +6273,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6310,14 +6310,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6330,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6367,14 +6367,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6387,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6424,14 +6424,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45003</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6444,7 +6444,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6481,14 +6481,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45003</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6501,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6538,14 +6538,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6558,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6595,14 +6595,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45302</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6615,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6652,14 +6652,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44992</v>
+        <v>45302</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6671,13 +6671,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6714,14 +6709,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45219</v>
+        <v>44992</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6739,7 +6734,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6776,14 +6771,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44362</v>
+        <v>45219</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6795,8 +6790,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6833,14 +6833,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>44362</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6890,14 +6890,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6947,14 +6947,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44362</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6966,13 +6966,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>12.8</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7009,14 +7004,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45106</v>
+        <v>44362</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7034,7 +7029,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>12.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7071,14 +7066,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45106</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7090,8 +7085,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7128,14 +7128,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44845</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7185,14 +7185,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45370</v>
+        <v>44845</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7202,11 +7202,6 @@
       <c r="E114" t="inlineStr">
         <is>
           <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -7247,14 +7242,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45370</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7266,8 +7261,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7304,14 +7304,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45107</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7324,7 +7324,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7361,14 +7361,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45219</v>
+        <v>45107</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7380,13 +7380,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>10.2</v>
+        <v>3.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7423,14 +7418,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
         <v>45219</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7448,7 +7443,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>10.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7485,14 +7480,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45219</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7504,8 +7499,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7542,14 +7542,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45702</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7561,13 +7561,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7604,14 +7599,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>45702</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7629,7 +7624,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7666,14 +7661,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44746</v>
+        <v>45702</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7685,8 +7680,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7723,14 +7723,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44992</v>
+        <v>44746</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7742,13 +7742,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>6</v>
+        <v>0.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7785,14 +7780,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45394</v>
+        <v>44992</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7804,8 +7799,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7842,14 +7842,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44446</v>
+        <v>45394</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7862,7 +7862,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7899,14 +7899,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45265</v>
+        <v>44446</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7918,13 +7918,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7961,90 +7956,90 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
+          <t>A 61859-2023</t>
+        </is>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>45265</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>A 32201-2024</t>
         </is>
       </c>
-      <c r="B127" s="1" t="n">
+      <c r="B128" s="1" t="n">
         <v>45511.66358796296</v>
       </c>
-      <c r="C127" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G127" t="n">
+      <c r="C128" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
         <v>2.9</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>0</v>
-      </c>
-      <c r="R127" s="2" t="inlineStr"/>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>A 54095-2022</t>
-        </is>
-      </c>
-      <c r="B128" s="1" t="n">
-        <v>44879</v>
-      </c>
-      <c r="C128" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G128" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
@@ -8076,63 +8071,6 @@
         <v>0</v>
       </c>
       <c r="R128" s="2" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>A 982-2025</t>
-        </is>
-      </c>
-      <c r="B129" s="1" t="n">
-        <v>45666.41855324074</v>
-      </c>
-      <c r="C129" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G129" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>0</v>
-      </c>
-      <c r="R129" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -739,14 +739,14 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="inlineStr">
         <is>
-          <t>A 145-2026</t>
+          <t>A 32842-2024</t>
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>46020</v>
+        <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -793,119 +793,119 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
+          <t>Blåmossa</t>
+        </is>
+      </c>
+      <c r="S4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="T4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="V4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="W4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>A 145-2026</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>46020</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SKÅNE LÄN</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
           <t>Mattlummer</t>
         </is>
       </c>
-      <c r="S4">
+      <c r="S5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 145-2026 artfynd.xlsx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="T4">
+      <c r="T5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 145-2026 karta.png", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="V4">
+      <c r="V5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 145-2026 FSC-klagomål.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="W4">
+      <c r="W5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 145-2026 FSC-klagomål mail.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="X4">
+      <c r="X5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 145-2026 tillsynsbegäran.docx", "A 145-2026")</f>
         <v/>
       </c>
-      <c r="Y4">
+      <c r="Y5">
         <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 145-2026 tillsynsbegäran mail.docx", "A 145-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>A 32842-2024</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n">
-        <v>45516.61791666667</v>
-      </c>
-      <c r="C5" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SKÅNE LÄN</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="2" t="inlineStr">
-        <is>
-          <t>Blåmossa</t>
-        </is>
-      </c>
-      <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/artfynd/A 32842-2024 artfynd.xlsx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/kartor/A 32842-2024 karta.png", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomål/A 32842-2024 FSC-klagomål.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/klagomålsmail/A 32842-2024 FSC-klagomål mail.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsyn/A 32842-2024 tillsynsbegäran.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1275/tillsynsmail/A 32842-2024 tillsynsbegäran mail.docx", "A 32842-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2245,14 +2245,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44746</v>
+        <v>44446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2302,14 +2302,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>44845</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2359,14 +2359,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2416,14 +2416,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45265</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,8 +2435,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>6.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2473,14 +2478,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45231</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2493,7 +2498,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2530,14 +2535,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45565</v>
+        <v>45302</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2550,7 +2555,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2594,7 +2599,7 @@
         <v>44879</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2649,14 +2654,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2668,8 +2673,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>4.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2706,14 +2716,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2726,7 +2736,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2763,14 +2773,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45314</v>
+        <v>45888</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,13 +2792,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2830,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>44362</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2844,8 +2849,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>12.8</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2882,14 +2892,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2902,7 +2912,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2939,14 +2949,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45756</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2959,7 +2969,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2996,14 +3006,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3015,13 +3025,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3058,14 +3063,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45302</v>
+        <v>45608</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3078,7 +3083,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3115,14 +3120,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45888</v>
+        <v>45602</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3135,7 +3140,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3172,14 +3177,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45756</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3192,7 +3197,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3229,14 +3234,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45981</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3249,7 +3254,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3286,14 +3291,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45259</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3305,13 +3310,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3348,14 +3348,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45602</v>
+        <v>44868</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3405,14 +3405,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3424,8 +3424,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G49" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3462,14 +3467,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3482,7 +3487,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3519,14 +3524,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>44875</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3538,8 +3543,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3576,14 +3586,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45817</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3596,7 +3606,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>6.4</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3633,14 +3643,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44923</v>
+        <v>44939</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3653,7 +3663,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.7</v>
+        <v>1.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3690,14 +3700,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45817</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3710,7 +3720,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.6</v>
+        <v>6.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3747,14 +3757,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45930</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3767,7 +3777,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3804,14 +3814,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3824,7 +3834,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3861,14 +3871,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45930</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3881,7 +3891,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3918,14 +3928,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45981</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3938,7 +3948,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3975,14 +3985,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45733</v>
+        <v>45259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3994,8 +4004,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4032,14 +4047,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44939</v>
+        <v>45826</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4052,7 +4067,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4096,7 +4111,7 @@
         <v>45845.66458333333</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4146,14 +4161,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45259</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4165,13 +4180,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4208,14 +4218,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45259</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4227,13 +4237,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4270,14 +4275,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45314</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4289,8 +4294,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4327,14 +4337,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45826</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4347,7 +4357,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4384,14 +4394,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45608</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4404,7 +4414,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4</v>
+        <v>0.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4441,14 +4451,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4461,7 +4471,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>5.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4498,14 +4508,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44868</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4517,8 +4527,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4555,14 +4570,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4575,7 +4590,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4612,14 +4627,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45219</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4631,8 +4646,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4669,14 +4689,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45107</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4689,7 +4709,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6.2</v>
+        <v>3.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4726,14 +4746,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4746,7 +4766,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4783,14 +4803,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45259</v>
+        <v>44746</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4802,13 +4822,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4845,14 +4860,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4865,7 +4880,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4902,14 +4917,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4921,13 +4936,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4964,14 +4974,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4984,7 +4994,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5021,14 +5031,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44882</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5040,13 +5050,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5083,14 +5088,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45702</v>
+        <v>45259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5108,7 +5113,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5145,14 +5150,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44882</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5164,13 +5169,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5207,14 +5207,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45610</v>
+        <v>45733</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5264,14 +5264,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5284,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5321,14 +5321,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5341,7 +5341,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.6</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5378,14 +5378,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>46034</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5398,7 +5398,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5435,14 +5435,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5454,13 +5454,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5497,14 +5492,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5517,7 +5512,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5554,14 +5549,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>44992</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5573,8 +5568,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>4.4</v>
+        <v>6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5611,14 +5611,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45610</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5668,14 +5668,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5688,7 +5688,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5725,14 +5725,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44875</v>
+        <v>44981</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5744,13 +5744,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5787,14 +5782,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44977</v>
+        <v>45702</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5806,8 +5801,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45219</v>
+        <v>45702</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5869,7 +5869,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5906,14 +5906,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5963,14 +5963,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6020,14 +6020,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45003</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6040,7 +6040,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6077,14 +6077,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46034</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6134,14 +6134,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45702</v>
+        <v>45219</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6159,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6196,14 +6196,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44981</v>
+        <v>45219</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6215,8 +6215,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6253,14 +6258,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44592</v>
+        <v>45219</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6272,8 +6277,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6310,14 +6320,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45107</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6330,7 +6340,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>6.2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6367,14 +6377,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45394</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6387,7 +6397,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6424,14 +6434,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>44882</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6443,8 +6453,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6481,14 +6496,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45003</v>
+        <v>44746</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6501,7 +6516,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6538,14 +6553,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6558,7 +6573,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6595,14 +6610,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>44923</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6615,7 +6630,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6652,14 +6667,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45302</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6672,7 +6687,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6709,14 +6724,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44992</v>
+        <v>45106</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6749,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6771,14 +6786,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45219</v>
+        <v>45259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6796,7 +6811,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6833,14 +6848,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44362</v>
+        <v>45370</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6852,8 +6867,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6890,14 +6910,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>44882</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6909,8 +6929,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6947,14 +6972,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45565</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6967,7 +6992,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7004,14 +7029,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44362</v>
+        <v>44592</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7023,13 +7048,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>12.8</v>
+        <v>2.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7066,14 +7086,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45106</v>
+        <v>45302</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7085,13 +7105,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7128,14 +7143,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>44992</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7147,8 +7162,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7185,14 +7205,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44845</v>
+        <v>45259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7204,8 +7224,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7242,14 +7267,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45370</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7261,13 +7286,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7304,14 +7324,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45702</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7323,8 +7343,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7361,14 +7386,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45107</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7381,7 +7406,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7418,14 +7443,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45219</v>
+        <v>45231</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7437,13 +7462,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>10.2</v>
+        <v>3.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7480,14 +7500,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45219</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7499,13 +7519,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7542,14 +7557,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7562,7 +7577,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7599,14 +7614,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45702</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7618,13 +7633,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7661,14 +7671,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45702</v>
+        <v>45107</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7680,13 +7690,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7723,14 +7728,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44746</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7743,7 +7748,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.9</v>
+        <v>4.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7780,14 +7785,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44992</v>
+        <v>45702</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7805,7 +7810,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7842,14 +7847,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45394</v>
+        <v>44977</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7862,7 +7867,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7899,14 +7904,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44446</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7919,7 +7924,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7956,14 +7961,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45265</v>
+        <v>44362</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7975,13 +7980,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>6.8</v>
+        <v>2.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8018,14 +8018,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2245,14 +2245,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44446</v>
+        <v>44746</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2265,7 +2265,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2302,14 +2302,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44845</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2359,14 +2359,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2379,7 +2379,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2416,14 +2416,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45265</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2435,13 +2435,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>6.8</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2478,14 +2473,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>45231</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2498,7 +2493,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2535,14 +2530,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45302</v>
+        <v>45565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2555,7 +2550,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2592,14 +2587,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44879</v>
+        <v>45314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2617,7 +2612,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2654,14 +2649,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2673,13 +2668,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>4.6</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2716,14 +2706,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2736,7 +2726,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2773,14 +2763,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45888</v>
+        <v>45259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2792,8 +2782,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2830,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44362</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2849,13 +2844,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>12.8</v>
+        <v>3.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2892,14 +2882,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2912,7 +2902,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2949,14 +2939,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>44923</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2969,7 +2959,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3006,14 +2996,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3026,7 +3016,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3063,14 +3053,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45608</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3083,7 +3073,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3120,14 +3110,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45602</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3139,8 +3129,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3177,14 +3172,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45756</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3197,7 +3192,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3234,14 +3229,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3254,7 +3249,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3291,14 +3286,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3311,7 +3306,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3348,14 +3343,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44868</v>
+        <v>44939</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3368,7 +3363,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3405,14 +3400,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3430,7 +3425,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3467,14 +3462,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3486,8 +3481,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3524,14 +3524,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44875</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3543,13 +3543,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3586,14 +3581,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>44868</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3606,7 +3601,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3643,14 +3638,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44939</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3663,7 +3658,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3700,14 +3695,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45817</v>
+        <v>45602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3720,7 +3715,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>6.4</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3757,14 +3752,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45930</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3777,7 +3772,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3814,14 +3809,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45107</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3834,7 +3829,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.8</v>
+        <v>6.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3871,14 +3866,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3891,7 +3886,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3928,14 +3923,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45981</v>
+        <v>45826</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3948,7 +3943,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3985,14 +3980,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45259</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4004,13 +3999,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4047,14 +4037,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45826</v>
+        <v>45259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4066,8 +4056,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4104,14 +4099,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4124,7 +4119,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4161,14 +4156,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4181,7 +4176,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4218,14 +4213,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4238,7 +4233,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4275,14 +4270,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45314</v>
+        <v>44882</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4300,7 +4295,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4337,14 +4332,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45702</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4356,8 +4351,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4394,14 +4394,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>44882</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4413,8 +4413,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4451,14 +4456,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45930</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4471,7 +4476,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4508,14 +4513,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45610</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4527,13 +4532,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4570,14 +4570,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4627,14 +4627,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45219</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4646,13 +4646,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>2</v>
+        <v>5.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4689,14 +4684,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4709,7 +4704,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4746,14 +4741,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4766,7 +4761,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4803,14 +4798,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44746</v>
+        <v>45608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4823,7 +4818,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4860,14 +4855,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4877,6 +4872,11 @@
       <c r="E74" t="inlineStr">
         <is>
           <t>PERSTORP</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -4917,14 +4917,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4974,14 +4974,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4994,7 +4994,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5031,14 +5031,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5051,7 +5051,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5088,14 +5088,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45259</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5107,13 +5107,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5150,14 +5145,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5169,8 +5164,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.4</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5207,14 +5207,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45733</v>
+        <v>44875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5226,8 +5226,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5264,14 +5269,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>44977</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5284,7 +5289,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5321,14 +5326,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45219</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5340,8 +5345,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5378,14 +5388,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>46034</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5398,7 +5408,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5435,14 +5445,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5455,7 +5465,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5492,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45981</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5512,7 +5522,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5549,14 +5559,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44992</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5568,13 +5578,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5611,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45610</v>
+        <v>45702</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5630,8 +5635,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5668,14 +5678,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>44981</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5688,7 +5698,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5725,14 +5735,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44981</v>
+        <v>44592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5745,7 +5755,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5782,14 +5792,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45702</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5801,13 +5811,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5849,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45702</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5863,13 +5868,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5906,14 +5906,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5926,7 +5926,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5963,14 +5963,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5983,7 +5983,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6027,7 +6027,7 @@
         <v>45003</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6077,14 +6077,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6097,7 +6097,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6134,14 +6134,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45219</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6153,13 +6153,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>10.2</v>
+        <v>1.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6196,14 +6191,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45219</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6215,13 +6210,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6258,14 +6248,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45219</v>
+        <v>45302</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6277,13 +6267,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6320,14 +6305,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45107</v>
+        <v>46034</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6340,7 +6325,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.2</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6377,14 +6362,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45394</v>
+        <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6396,8 +6381,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6434,14 +6424,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44882</v>
+        <v>45219</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6459,7 +6449,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6496,14 +6486,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44746</v>
+        <v>44362</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6516,7 +6506,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6553,14 +6543,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6573,7 +6563,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6610,14 +6600,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44923</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6630,7 +6620,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6667,14 +6657,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>44362</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6686,8 +6676,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6731,7 +6726,7 @@
         <v>45106</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6786,14 +6781,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45259</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6805,13 +6800,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6848,14 +6838,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45370</v>
+        <v>44845</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6865,11 +6855,6 @@
       <c r="E108" t="inlineStr">
         <is>
           <t>PERSTORP</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G108" t="n">
@@ -6910,14 +6895,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44882</v>
+        <v>45370</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6935,7 +6920,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6972,14 +6957,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45565</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6992,7 +6977,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7029,14 +7014,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44592</v>
+        <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7049,7 +7034,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7086,14 +7071,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45302</v>
+        <v>45219</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7105,8 +7090,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>2.9</v>
+        <v>10.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7143,14 +7133,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44992</v>
+        <v>45219</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7168,7 +7158,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7205,14 +7195,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45259</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7224,13 +7214,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7267,14 +7252,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7286,8 +7271,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7324,14 +7314,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
         <v>45702</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7349,7 +7339,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7386,14 +7376,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>44746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7406,7 +7396,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7443,14 +7433,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45231</v>
+        <v>44992</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7462,8 +7452,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7500,14 +7495,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7520,7 +7515,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7557,14 +7552,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>44446</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7577,7 +7572,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7614,14 +7609,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7633,8 +7628,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7671,14 +7671,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45107</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7728,14 +7728,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>44879</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7747,8 +7747,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7785,14 +7790,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45702</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7804,13 +7809,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7847,14 +7847,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44977</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7867,7 +7867,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7904,14 +7904,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7961,14 +7961,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44362</v>
+        <v>45756</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8018,14 +8018,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>45751.36584490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44746</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45029.36196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>45701.47834490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45078.30322916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45231</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45397.34383101852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45545.66203703704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44636.84741898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44923</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>45544.45065972222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>45888.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>45894.86383101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45733.83363425926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>45888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44939</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>45583.47193287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44868</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>45478.57881944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45107</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>45845.66458333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>45826</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>45849.52086805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44945.62488425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45862.5662962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45925.39194444445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44882</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45702</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44882</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45930</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45610</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45356.38424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44312.60537037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45078.29748842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45940.59828703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45701.64104166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45373.64611111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44524.90207175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45958.64665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>45958.83685185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44977</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45219</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44323.26083333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45565.42112268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45981</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45987.39408564815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45702</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44981</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>45369.51898148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>46043.38798611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45161.7861574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45356.48212962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>45003</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>46007.87944444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45062.50630787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>45145.61299768519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45302</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>46034</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45219</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44362</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>45161.78365740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>45235.41175925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44362</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45106</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45751.36126157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44845</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45370</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44923.43637731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>45219</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45219</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45163.59946759259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45702</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44992</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44446</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45511.66358796296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44879</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45666.41855324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45477.58034722223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45478.56774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45756</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>45751.36584490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>44746</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>45029.36196759259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>45701.47834490741</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45078.30322916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45231</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2537,7 +2537,7 @@
         <v>45565</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2594,7 +2594,7 @@
         <v>45314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2656,7 +2656,7 @@
         <v>45302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2713,7 +2713,7 @@
         <v>45397.34383101852</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2770,7 +2770,7 @@
         <v>45259</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45545.66203703704</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2889,7 +2889,7 @@
         <v>44636.84741898148</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2946,7 +2946,7 @@
         <v>44923</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3003,7 +3003,7 @@
         <v>45544.45065972222</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3060,7 +3060,7 @@
         <v>45888.48535879629</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3117,7 +3117,7 @@
         <v>45894.86383101852</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3179,7 +3179,7 @@
         <v>45733.83363425926</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3236,7 +3236,7 @@
         <v>45733</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         <v>45888</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3350,7 +3350,7 @@
         <v>44939</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3407,7 +3407,7 @@
         <v>45259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3469,7 +3469,7 @@
         <v>45259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         <v>45583.47193287037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3588,7 +3588,7 @@
         <v>44868</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3645,7 +3645,7 @@
         <v>45478.57881944445</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3702,7 +3702,7 @@
         <v>45602</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3759,7 +3759,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3816,7 +3816,7 @@
         <v>45107</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
         <v>45845.66458333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>45826</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3987,7 +3987,7 @@
         <v>45849.52086805556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4044,7 +4044,7 @@
         <v>45259</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>44945.62488425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4163,7 +4163,7 @@
         <v>45862.5662962963</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4220,7 +4220,7 @@
         <v>45925.39194444445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4277,7 +4277,7 @@
         <v>44882</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4339,7 +4339,7 @@
         <v>45702</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>44882</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4463,7 +4463,7 @@
         <v>45930</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4520,7 +4520,7 @@
         <v>45610</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4577,7 +4577,7 @@
         <v>45356.38424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4634,7 +4634,7 @@
         <v>44312.60537037037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45078.29748842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>45940.59828703704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4805,7 +4805,7 @@
         <v>45608</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4862,7 +4862,7 @@
         <v>45701.64104166667</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>45373.64611111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>44524.90207175926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5038,7 +5038,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5095,7 +5095,7 @@
         <v>45958.64665509259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5152,7 +5152,7 @@
         <v>45958.83685185185</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5214,7 +5214,7 @@
         <v>44875</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>44977</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45219</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         <v>44323.26083333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         <v>45565.42112268518</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45981</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         <v>45987.39408564815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5623,7 +5623,7 @@
         <v>45702</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5685,7 +5685,7 @@
         <v>44981</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5742,7 +5742,7 @@
         <v>44592</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>45369.51898148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5856,7 +5856,7 @@
         <v>46043.38798611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5913,7 +5913,7 @@
         <v>45161.7861574074</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5970,7 +5970,7 @@
         <v>45356.48212962963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6027,7 +6027,7 @@
         <v>45003</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6084,7 +6084,7 @@
         <v>46007.87944444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6141,7 +6141,7 @@
         <v>45062.50630787037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6198,7 +6198,7 @@
         <v>45145.61299768519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6255,7 +6255,7 @@
         <v>45302</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6312,7 +6312,7 @@
         <v>46034</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6369,7 +6369,7 @@
         <v>44992</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6431,7 +6431,7 @@
         <v>45219</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6493,7 +6493,7 @@
         <v>44362</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6550,7 +6550,7 @@
         <v>45161.78365740741</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6607,7 +6607,7 @@
         <v>45235.41175925926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6664,7 +6664,7 @@
         <v>44362</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6726,7 +6726,7 @@
         <v>45106</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6788,7 +6788,7 @@
         <v>45751.36126157407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6845,7 +6845,7 @@
         <v>44845</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6902,7 +6902,7 @@
         <v>45370</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6964,7 +6964,7 @@
         <v>44923.43637731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7021,7 +7021,7 @@
         <v>45107</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7078,7 +7078,7 @@
         <v>45219</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7140,7 +7140,7 @@
         <v>45219</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7202,7 +7202,7 @@
         <v>45163.59946759259</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7259,7 +7259,7 @@
         <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>45702</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>44746</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>44992</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45394</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44446</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>45265</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45511.66358796296</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>44879</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>45666.41855324074</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45477.58034722223</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45478.56774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45756</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45817</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1023,14 +1023,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 30747-2021</t>
+          <t>A 57997-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44365.46018518518</v>
+        <v>44487</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1080,14 +1080,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 57997-2021</t>
+          <t>A 30747-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44487</v>
+        <v>44365.46018518518</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 18509-2021</t>
+          <t>A 30753-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44305</v>
+        <v>44365.46269675926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,13 +1389,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1432,14 +1427,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 29748-2021</t>
+          <t>A 18509-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44362</v>
+        <v>44305</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1451,8 +1446,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 60021-2021</t>
+          <t>A 16048-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44494.99633101852</v>
+        <v>44287</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1546,14 +1546,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 30753-2021</t>
+          <t>A 29748-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44365.46269675926</v>
+        <v>44362</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1603,14 +1603,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16048-2021</t>
+          <t>A 60021-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44287</v>
+        <v>44494.99633101852</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1660,14 +1660,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18514-2021</t>
+          <t>A 54411-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,13 +1679,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1722,14 +1717,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54411-2021</t>
+          <t>A 18514-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1741,8 +1736,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1779,14 +1779,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 26501-2022</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44739</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1836,14 +1836,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 26501-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44739</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>44875</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,8 +2207,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2245,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44746</v>
+        <v>44939</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2265,7 +2270,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2302,14 +2307,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2322,7 +2327,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2359,14 +2364,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2379,7 +2384,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2416,14 +2421,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2436,7 +2441,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2473,14 +2478,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45231</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2493,7 +2498,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2530,14 +2535,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45565</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2549,8 +2554,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2587,14 +2597,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45314</v>
+        <v>44845</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,13 +2616,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2656,7 +2661,7 @@
         <v>45302</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2706,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>44746</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2726,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2763,14 +2768,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45259</v>
+        <v>45219</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2788,7 +2793,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2825,14 +2830,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45259</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2844,8 +2849,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2882,14 +2892,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2902,7 +2912,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2939,14 +2949,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44923</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2959,7 +2969,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2996,14 +3006,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3016,7 +3026,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3053,14 +3063,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>44992</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3072,8 +3082,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3110,14 +3125,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>44362</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3135,7 +3150,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.6</v>
+        <v>12.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3172,14 +3187,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3192,7 +3207,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3229,14 +3244,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45733</v>
+        <v>45610</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3249,7 +3264,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3286,14 +3301,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45888</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3306,7 +3321,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3343,14 +3358,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44939</v>
+        <v>44981</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3363,7 +3378,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3400,14 +3415,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45259</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3419,13 +3434,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3462,14 +3472,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45259</v>
+        <v>45314</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3487,7 +3497,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3524,14 +3534,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3543,8 +3553,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G51" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3581,14 +3596,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44868</v>
+        <v>45702</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3600,8 +3615,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3638,14 +3658,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45702</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3657,8 +3677,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3695,14 +3720,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45602</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3715,7 +3740,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3752,14 +3777,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3772,7 +3797,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3809,14 +3834,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45107</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3829,7 +3854,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>6.2</v>
+        <v>3.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3866,14 +3891,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45733</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3886,7 +3911,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3923,14 +3948,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45826</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3943,7 +3968,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3980,14 +4005,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4000,7 +4025,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4037,14 +4062,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45259</v>
+        <v>45003</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4056,13 +4081,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4099,14 +4119,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4119,7 +4139,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4156,14 +4176,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4176,7 +4196,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4213,14 +4233,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4233,7 +4253,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4270,14 +4290,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
         <v>44882</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4295,7 +4315,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4332,14 +4352,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45702</v>
+        <v>45219</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4357,7 +4377,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4394,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44882</v>
+        <v>45219</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4419,7 +4439,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4456,14 +4476,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45930</v>
+        <v>44746</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4476,7 +4496,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4513,14 +4533,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45610</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4533,7 +4553,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4570,14 +4590,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4590,7 +4610,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4627,14 +4647,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>44868</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4647,7 +4667,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4684,14 +4704,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>44923</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4704,7 +4724,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4741,14 +4761,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4761,7 +4781,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4798,14 +4818,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45608</v>
+        <v>45219</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4817,8 +4837,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4855,14 +4880,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45106</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4880,7 +4905,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4917,14 +4942,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>45259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4936,8 +4961,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4974,14 +5004,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4994,7 +5024,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5031,14 +5061,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45107</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5051,7 +5081,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>6.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5088,14 +5118,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5107,8 +5137,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5145,14 +5180,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45394</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5164,13 +5199,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5207,14 +5237,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44875</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5232,7 +5262,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5269,14 +5299,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44977</v>
+        <v>45888</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5289,7 +5319,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5326,14 +5356,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45219</v>
+        <v>44882</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5351,7 +5381,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5388,14 +5418,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45565</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5408,7 +5438,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5445,14 +5475,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>44592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5465,7 +5495,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5502,14 +5532,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45981</v>
+        <v>45602</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5522,7 +5552,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.2</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5559,14 +5589,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45302</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5579,7 +5609,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5646,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45702</v>
+        <v>44992</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5641,7 +5671,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5678,14 +5708,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44981</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5698,7 +5728,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5735,14 +5765,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44592</v>
+        <v>45259</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5754,8 +5784,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5792,14 +5827,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5812,7 +5847,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5849,14 +5884,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5869,7 +5904,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5906,14 +5941,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45930</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5926,7 +5961,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5963,14 +5998,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45702</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5982,8 +6017,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6020,14 +6060,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45003</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6040,7 +6080,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6077,14 +6117,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6097,7 +6137,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6134,14 +6174,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45231</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6154,7 +6194,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6191,14 +6231,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45608</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6211,7 +6251,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6248,14 +6288,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45302</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6268,7 +6308,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6305,14 +6345,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46034</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6325,7 +6365,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6362,14 +6402,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44992</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6381,13 +6421,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6424,14 +6459,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45219</v>
+        <v>45107</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6443,13 +6478,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6486,14 +6516,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44362</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6506,7 +6536,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6543,14 +6573,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6563,7 +6593,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6600,14 +6630,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45702</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6619,8 +6649,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6657,14 +6692,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44362</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6682,7 +6717,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>12.8</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6719,14 +6754,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45106</v>
+        <v>44977</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6738,13 +6773,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6781,14 +6811,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6801,7 +6831,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6838,14 +6868,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44845</v>
+        <v>44362</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6858,7 +6888,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6895,14 +6925,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45370</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6914,13 +6944,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6957,14 +6982,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6977,7 +7002,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7014,14 +7039,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45107</v>
+        <v>44446</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7034,7 +7059,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7071,14 +7096,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45219</v>
+        <v>45981</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7090,13 +7115,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>10.2</v>
+        <v>2.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7133,14 +7153,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45219</v>
+        <v>45265</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7158,7 +7178,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7195,14 +7215,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7215,7 +7235,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7252,14 +7272,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45702</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7271,13 +7291,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7314,14 +7329,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45702</v>
+        <v>44879</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7339,7 +7354,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7376,14 +7391,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44746</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7396,7 +7411,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7433,14 +7448,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44992</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7452,13 +7467,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7495,14 +7505,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45394</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7515,7 +7525,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7552,14 +7562,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44446</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7572,7 +7582,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7609,14 +7619,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45265</v>
+        <v>45756</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7628,13 +7638,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7671,14 +7676,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7691,7 +7696,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7728,14 +7733,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44879</v>
+        <v>45817</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7747,13 +7752,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.6</v>
+        <v>6.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7790,14 +7790,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45826</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7810,7 +7810,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>4.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7847,14 +7847,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7904,14 +7904,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>46034</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7961,14 +7961,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45756</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8018,14 +8018,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45817</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.4</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1023,14 +1023,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 57997-2021</t>
+          <t>A 30747-2021</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>44487</v>
+        <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1080,14 +1080,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 30747-2021</t>
+          <t>A 57997-2021</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>44365.46018518518</v>
+        <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>0.7</v>
+        <v>3.1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1370,14 +1370,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 30753-2021</t>
+          <t>A 18509-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44365.46269675926</v>
+        <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,8 +1389,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1427,14 +1432,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 18509-2021</t>
+          <t>A 29748-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44305</v>
+        <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1446,13 +1451,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1489,14 +1489,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 16048-2021</t>
+          <t>A 60021-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44287</v>
+        <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1509,7 +1509,7 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1546,14 +1546,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 29748-2021</t>
+          <t>A 30753-2021</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>44362</v>
+        <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1603,14 +1603,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 60021-2021</t>
+          <t>A 16048-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44494.99633101852</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1623,7 +1623,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1660,14 +1660,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 54411-2021</t>
+          <t>A 18514-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,8 +1679,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1717,14 +1722,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 18514-2021</t>
+          <t>A 54411-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1736,13 +1741,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G20" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1779,14 +1779,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 26501-2022</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1799,7 +1799,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.5</v>
+        <v>7</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1836,14 +1836,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 26501-2022</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44739</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44875</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,13 +2207,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2250,14 +2245,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44939</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2270,7 +2265,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2307,14 +2302,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>44746</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2327,7 +2322,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.9</v>
+        <v>6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2364,14 +2359,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2384,7 +2379,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>5.6</v>
+        <v>1.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2421,14 +2416,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2441,7 +2436,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2478,14 +2473,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45394</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2498,7 +2493,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2535,14 +2530,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45231</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2554,13 +2549,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2597,14 +2587,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44845</v>
+        <v>45565</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2617,7 +2607,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2654,14 +2644,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45302</v>
+        <v>44446</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2674,7 +2664,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2711,14 +2701,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44746</v>
+        <v>45265</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2730,8 +2720,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G37" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2768,14 +2763,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45219</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2787,13 +2782,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2830,14 +2820,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45259</v>
+        <v>45314</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2855,7 +2845,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2892,14 +2882,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2912,7 +2902,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2949,14 +2939,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>44879</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2968,8 +2958,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3006,14 +3001,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3026,7 +3021,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3063,14 +3058,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44992</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3088,7 +3083,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>6</v>
+        <v>4.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3125,14 +3120,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44362</v>
+        <v>45888</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3144,13 +3139,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3187,14 +3177,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45302</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3207,7 +3197,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3244,14 +3234,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45610</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3264,7 +3254,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3301,14 +3291,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3321,7 +3311,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3358,14 +3348,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44981</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3378,7 +3368,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3415,14 +3405,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45756</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3435,7 +3425,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3472,14 +3462,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45314</v>
+        <v>45602</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3491,13 +3481,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G50" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3534,14 +3519,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
         <v>45259</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3596,14 +3581,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45702</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3615,13 +3600,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3658,14 +3638,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45702</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3677,13 +3657,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3720,14 +3695,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3740,7 +3715,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3777,14 +3752,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>44923</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3797,7 +3772,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3834,14 +3809,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3854,7 +3829,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3891,14 +3866,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45733</v>
+        <v>45817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3911,7 +3886,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.3</v>
+        <v>6.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3948,14 +3923,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3968,7 +3943,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4005,14 +3980,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>45930</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4000,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4062,14 +4037,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45003</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4057,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4119,14 +4094,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4114,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4176,14 +4151,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>45733</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4196,7 +4171,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4233,14 +4208,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>45608</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4253,7 +4228,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4290,14 +4265,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44882</v>
+        <v>44939</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4309,13 +4284,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4352,14 +4322,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45219</v>
+        <v>45259</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4377,7 +4347,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.2</v>
+        <v>0.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4384,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45219</v>
+        <v>45259</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4439,7 +4409,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4476,14 +4446,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44746</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4496,7 +4466,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4533,14 +4503,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>44868</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4553,7 +4523,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4590,14 +4560,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4610,7 +4580,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4647,14 +4617,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44868</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4667,7 +4637,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4704,14 +4674,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44923</v>
+        <v>45826</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4724,7 +4694,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4761,14 +4731,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45107</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4781,7 +4751,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4818,14 +4788,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45219</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4837,13 +4807,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4880,14 +4845,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45106</v>
+        <v>45259</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4905,7 +4870,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4942,14 +4907,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45259</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4961,13 +4926,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5004,14 +4964,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5024,7 +4984,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5061,14 +5021,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45107</v>
+        <v>44882</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5080,8 +5040,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5118,14 +5083,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45370</v>
+        <v>45702</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5143,7 +5108,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5180,14 +5145,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45394</v>
+        <v>44882</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5199,8 +5164,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5237,14 +5207,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5256,13 +5226,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5299,14 +5264,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45888</v>
+        <v>45610</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5319,7 +5284,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5356,14 +5321,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44882</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5375,13 +5340,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5418,14 +5378,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45565</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5437,8 +5397,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5475,14 +5440,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44592</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5495,7 +5460,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5532,14 +5497,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45602</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5589,14 +5554,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45302</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5608,8 +5573,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5646,14 +5616,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44992</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5665,13 +5635,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5708,14 +5673,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5728,7 +5693,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5765,14 +5730,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45259</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5784,13 +5749,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5827,14 +5787,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45981</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5847,7 +5807,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5884,14 +5844,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5904,7 +5864,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5941,14 +5901,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45930</v>
+        <v>44875</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5960,8 +5920,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5998,14 +5963,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45702</v>
+        <v>44977</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6017,13 +5982,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6060,14 +6020,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45219</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6079,8 +6039,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6117,14 +6082,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6137,7 +6102,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6174,14 +6139,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45231</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6194,7 +6159,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6231,14 +6196,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45608</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6251,7 +6216,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6288,14 +6253,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45702</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6307,8 +6272,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6345,14 +6315,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>44981</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6365,7 +6335,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6402,14 +6372,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>44592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6422,7 +6392,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6459,14 +6429,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45107</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6479,7 +6449,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6516,14 +6486,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6536,7 +6506,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6573,14 +6543,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6593,7 +6563,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.4</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6630,14 +6600,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45702</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6649,13 +6619,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6692,14 +6657,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45003</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6711,13 +6676,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6754,14 +6714,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44977</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6774,7 +6734,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6811,14 +6771,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6831,7 +6791,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6868,14 +6828,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44362</v>
+        <v>45302</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6888,7 +6848,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6925,14 +6885,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>44992</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6944,8 +6904,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6982,14 +6947,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45219</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7001,8 +6966,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7039,14 +7009,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44446</v>
+        <v>46034</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7096,14 +7066,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45981</v>
+        <v>44362</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7116,7 +7086,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7153,14 +7123,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45265</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7172,13 +7142,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7215,14 +7180,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7235,7 +7200,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7272,14 +7237,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>44362</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7291,8 +7256,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>12.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7329,14 +7299,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44879</v>
+        <v>45106</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7354,7 +7324,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7391,14 +7361,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7411,7 +7381,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7448,14 +7418,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>44845</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7468,7 +7438,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7505,14 +7475,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45370</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7524,8 +7494,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7562,14 +7537,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7582,7 +7557,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7619,14 +7594,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45756</v>
+        <v>45107</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7639,7 +7614,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7676,14 +7651,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45219</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7695,8 +7670,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7733,14 +7713,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45817</v>
+        <v>45219</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7752,8 +7732,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>6.4</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7790,14 +7775,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45826</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7810,7 +7795,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7847,14 +7832,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45702</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7866,8 +7851,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7904,14 +7894,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46034</v>
+        <v>45702</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7923,8 +7913,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7961,14 +7956,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>44746</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7981,7 +7976,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8018,14 +8013,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>44992</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8037,8 +8032,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1313,14 +1313,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 16050-2021</t>
+          <t>A 18514-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1332,8 +1332,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>0.2</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1370,14 +1375,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 18509-2021</t>
+          <t>A 54411-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44305</v>
+        <v>44473</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1389,13 +1394,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G14" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1432,14 +1432,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 29748-2021</t>
+          <t>A 16050-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44362</v>
+        <v>44287</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 16048-2021</t>
+          <t>A 18509-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,8 +1622,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G18" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1660,14 +1665,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 18514-2021</t>
+          <t>A 16048-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44305</v>
+        <v>44287</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1679,13 +1684,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1722,14 +1722,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 54411-2021</t>
+          <t>A 29748-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44473</v>
+        <v>44362</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1836,14 +1836,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 4989-2022</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1893,14 +1893,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 31645-2021</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44369</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1912,13 +1912,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1955,14 +1950,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 52729-2021</t>
+          <t>A 31645-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44467.29098379629</v>
+        <v>44369</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1974,8 +1969,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2012,14 +2012,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4989-2022</t>
+          <t>A 52729-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44593</v>
+        <v>44467.29098379629</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>6.7</v>
+        <v>0.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>44992</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,8 +2207,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G28" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2245,14 +2250,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45259</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2264,8 +2269,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G29" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2302,14 +2312,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44746</v>
+        <v>45259</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2321,8 +2331,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>6</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2359,14 +2374,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>44845</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2379,7 +2394,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2416,14 +2431,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2436,7 +2451,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2473,14 +2488,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45394</v>
+        <v>45302</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2493,7 +2508,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2530,14 +2545,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45231</v>
+        <v>45610</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2550,7 +2565,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2587,14 +2602,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45565</v>
+        <v>45314</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2606,8 +2621,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2644,14 +2664,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44446</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2664,7 +2684,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2701,14 +2721,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45265</v>
+        <v>44981</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2720,13 +2740,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G37" t="n">
-        <v>6.8</v>
+        <v>3.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2763,14 +2778,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>45702</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2782,8 +2797,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G38" t="n">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2820,14 +2840,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45314</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2839,13 +2859,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2882,14 +2897,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>44362</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2901,8 +2916,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>12.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2939,14 +2959,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44879</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2958,13 +2978,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3001,14 +3016,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3021,7 +3036,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.6</v>
+        <v>5.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3058,14 +3073,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45231</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3077,13 +3092,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G43" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3120,14 +3130,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45888</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3139,8 +3149,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3177,14 +3192,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45302</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3197,7 +3212,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3234,14 +3249,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3254,7 +3269,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3291,14 +3306,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>44868</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3311,7 +3326,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3348,14 +3363,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3368,7 +3383,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3405,14 +3420,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45756</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3425,7 +3440,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3462,14 +3477,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45602</v>
+        <v>45107</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3482,7 +3497,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3519,14 +3534,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45259</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3538,13 +3553,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3581,14 +3591,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45219</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3600,8 +3610,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3638,14 +3653,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45702</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3657,8 +3672,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G53" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3695,14 +3715,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>44977</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3715,7 +3735,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3752,14 +3772,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44923</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3772,7 +3792,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3809,14 +3829,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>44362</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3829,7 +3849,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3866,14 +3886,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45817</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3886,7 +3906,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3923,14 +3943,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>44875</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3942,8 +3962,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -3980,14 +4005,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45930</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4000,7 +4025,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4037,14 +4062,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>44939</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4057,7 +4082,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4094,14 +4119,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>44746</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4114,7 +4139,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.4</v>
+        <v>6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4151,14 +4176,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45733</v>
+        <v>45702</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4170,8 +4195,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4208,14 +4238,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45608</v>
+        <v>45702</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4227,8 +4257,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4265,14 +4300,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44939</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4285,7 +4320,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4322,14 +4357,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45259</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4341,13 +4376,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4384,14 +4414,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45259</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4403,13 +4433,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4446,14 +4471,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4466,7 +4491,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4503,14 +4528,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44868</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4523,7 +4548,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4560,14 +4585,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45003</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4580,7 +4605,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4617,14 +4642,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>44446</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4637,7 +4662,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4674,14 +4699,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45826</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4694,7 +4719,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4731,14 +4756,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45107</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4751,7 +4776,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>6.2</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4788,14 +4813,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>45265</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4807,8 +4832,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>6.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4845,14 +4875,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45259</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4864,13 +4894,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4907,14 +4932,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4927,7 +4952,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4964,14 +4989,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -4984,7 +5009,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5021,14 +5046,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44882</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5040,13 +5065,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5083,14 +5103,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45702</v>
+        <v>45219</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5108,7 +5128,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.3</v>
+        <v>10.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5145,14 +5165,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44882</v>
+        <v>45219</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5170,7 +5190,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5207,14 +5227,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5227,7 +5247,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5264,14 +5284,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45610</v>
+        <v>44879</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5283,8 +5303,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5321,14 +5346,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45259</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5340,8 +5365,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5378,14 +5408,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5403,7 +5433,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.2</v>
+        <v>4.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5440,14 +5470,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45888</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5460,7 +5490,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5497,14 +5527,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5517,7 +5547,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5554,14 +5584,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45733</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5573,13 +5603,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5616,14 +5641,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5636,7 +5661,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5673,14 +5698,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5693,7 +5718,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5737,7 +5762,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5787,14 +5812,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45981</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5807,7 +5832,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5844,14 +5869,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45219</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5863,8 +5888,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5901,14 +5931,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44875</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5920,13 +5950,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5963,14 +5988,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44977</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -5983,7 +6008,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6020,14 +6045,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45219</v>
+        <v>45602</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6039,13 +6064,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6082,14 +6102,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6102,7 +6122,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6139,14 +6159,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6159,7 +6179,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6196,14 +6216,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45756</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6216,7 +6236,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6253,14 +6273,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45702</v>
+        <v>45107</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6272,13 +6292,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>0.7</v>
+        <v>6.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6315,14 +6330,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44981</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6335,7 +6350,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6372,14 +6387,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44592</v>
+        <v>45930</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6392,7 +6407,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6429,14 +6444,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>45394</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6449,7 +6464,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6486,14 +6501,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45817</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6506,7 +6521,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>6.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6543,14 +6558,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6563,7 +6578,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6600,14 +6615,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45608</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6620,7 +6635,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6657,14 +6672,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45003</v>
+        <v>44882</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6676,8 +6691,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6714,14 +6734,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>44746</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6734,7 +6754,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6771,14 +6791,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6791,7 +6811,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6828,14 +6848,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45302</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6848,7 +6868,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6885,14 +6905,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44992</v>
+        <v>44923</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6904,13 +6924,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -6947,14 +6962,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45219</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6966,13 +6981,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7009,14 +7019,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>46034</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7028,8 +7038,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7066,14 +7081,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44362</v>
+        <v>45826</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7086,7 +7101,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7123,14 +7138,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7143,7 +7158,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7180,14 +7195,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45106</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7199,8 +7214,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7237,14 +7257,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44362</v>
+        <v>45259</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7262,7 +7282,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>12.8</v>
+        <v>3.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7299,14 +7319,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45106</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7318,13 +7338,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7361,14 +7376,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45370</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7380,8 +7395,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7418,14 +7438,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44845</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7438,7 +7458,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7475,14 +7495,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45370</v>
+        <v>45981</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7494,13 +7514,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7537,14 +7552,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7557,7 +7572,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7594,14 +7609,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45107</v>
+        <v>44882</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7613,8 +7628,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7651,14 +7671,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45219</v>
+        <v>45565</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7670,13 +7690,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G122" t="n">
-        <v>10.2</v>
+        <v>1.3</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7713,14 +7728,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45219</v>
+        <v>44592</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7732,13 +7747,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7775,14 +7785,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45302</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7795,7 +7805,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7832,14 +7842,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45702</v>
+        <v>44992</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7857,7 +7867,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7894,14 +7904,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45702</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7913,13 +7923,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7956,14 +7961,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44746</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8013,14 +8018,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44992</v>
+        <v>46034</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8032,13 +8037,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1313,14 +1313,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 18514-2021</t>
+          <t>A 16050-2021</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44305</v>
+        <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1332,13 +1332,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1375,14 +1370,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 54411-2021</t>
+          <t>A 18509-2021</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>44473</v>
+        <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1394,8 +1389,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G14" t="n">
-        <v>4.3</v>
+        <v>1.3</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1432,14 +1432,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 16050-2021</t>
+          <t>A 29748-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44287</v>
+        <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 18509-2021</t>
+          <t>A 16048-2021</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
-        <v>44305</v>
+        <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1622,13 +1622,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G18" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1665,14 +1660,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 16048-2021</t>
+          <t>A 18514-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44287</v>
+        <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1684,8 +1679,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1722,14 +1722,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 29748-2021</t>
+          <t>A 54411-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44362</v>
+        <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.7</v>
+        <v>4.3</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1836,14 +1836,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 4989-2022</t>
+          <t>A 53784-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44593</v>
+        <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1856,7 +1856,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>6.7</v>
+        <v>1.5</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1893,14 +1893,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 53784-2021</t>
+          <t>A 31645-2021</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44469.58342592593</v>
+        <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1912,8 +1912,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1950,14 +1955,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 31645-2021</t>
+          <t>A 52729-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44369</v>
+        <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1969,13 +1974,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2012,14 +2012,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 52729-2021</t>
+          <t>A 4989-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44467.29098379629</v>
+        <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2188,14 +2188,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 11701-2023</t>
+          <t>A 46200-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44992</v>
+        <v>44845</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2207,13 +2207,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G28" t="n">
-        <v>6</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2250,14 +2245,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 60501-2023</t>
+          <t>A 1166-2024</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>45259</v>
+        <v>45302</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2269,13 +2264,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G29" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2312,14 +2302,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 60506-2023</t>
+          <t>A 29743-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45259</v>
+        <v>44362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2337,7 +2327,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>12.8</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2374,14 +2364,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 46200-2022</t>
+          <t>A 54647-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44845</v>
+        <v>45235.41175925926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2394,7 +2384,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2431,14 +2421,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14632-2024</t>
+          <t>A 51207-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45397.34383101852</v>
+        <v>44868</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2451,7 +2441,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2488,14 +2478,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 1166-2024</t>
+          <t>A 53586-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45302</v>
+        <v>44875</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2507,8 +2497,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2545,14 +2540,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 52740-2024</t>
+          <t>A 39080-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45610</v>
+        <v>45888.48535879629</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2565,7 +2560,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2602,14 +2597,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 2684-2024</t>
+          <t>A 2015-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45314</v>
+        <v>44939</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2621,13 +2616,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2664,14 +2654,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 2950-2023</t>
+          <t>A 12182-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44945.62488425926</v>
+        <v>44636.84741898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2684,7 +2674,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2721,14 +2711,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 9368-2023</t>
+          <t>A 42435-2024</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44981</v>
+        <v>45565.42112268518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2741,7 +2731,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2778,14 +2768,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 7492-2025</t>
+          <t>A 28097-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45702</v>
+        <v>45817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2797,13 +2787,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G38" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2840,14 +2825,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 67669-2021</t>
+          <t>A 40240-2025</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44524.90207175926</v>
+        <v>45894.86383101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2859,8 +2844,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2897,14 +2887,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29743-2021</t>
+          <t>A 39113-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44362</v>
+        <v>45888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2916,13 +2906,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G40" t="n">
-        <v>12.8</v>
+        <v>3.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2959,14 +2944,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 38329-2023</t>
+          <t>A 60501-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45161.7861574074</v>
+        <v>45259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2978,8 +2963,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G41" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3016,14 +3006,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 19621-2021</t>
+          <t>A 51250-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44312.60537037037</v>
+        <v>45602</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3036,7 +3026,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.6</v>
+        <v>0.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3073,14 +3063,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 53875-2023</t>
+          <t>A 2684-2024</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45231</v>
+        <v>45314</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3092,8 +3082,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G43" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3130,14 +3125,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 7043-2025</t>
+          <t>A 30063-2025</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45701.64104166667</v>
+        <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3149,13 +3144,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3192,14 +3182,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 23786-2023</t>
+          <t>A 43566-2025</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>45078.30322916667</v>
+        <v>45911.63248842592</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3212,7 +3202,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>4.3</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3249,14 +3239,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 54647-2023</t>
+          <t>A 34236-2025</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>45235.41175925926</v>
+        <v>45845.66458333333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3269,7 +3259,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3306,14 +3296,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 51207-2022</t>
+          <t>A 34907-2025</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44868</v>
+        <v>45849.52086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3326,7 +3316,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3363,14 +3353,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 8741-2024</t>
+          <t>A 38329-2023</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>45356.48212962963</v>
+        <v>45161.7861574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3383,7 +3373,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3420,14 +3410,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10742-2024</t>
+          <t>A 19621-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>45369.51898148148</v>
+        <v>44312.60537037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3440,7 +3430,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>5.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3477,14 +3467,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 29874-2023</t>
+          <t>A 7043-2025</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>45107</v>
+        <v>45701.64104166667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3496,8 +3486,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G50" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3534,14 +3529,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 11720-2024</t>
+          <t>A 35922-2025</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>45373.64611111111</v>
+        <v>45862.5662962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3554,7 +3549,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3591,14 +3586,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 52617-2023</t>
+          <t>A 46292-2025</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>45219</v>
+        <v>45925.39194444445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3610,13 +3605,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3653,14 +3643,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 7509-2025</t>
+          <t>A 47289-2025</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>45702</v>
+        <v>45930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3672,13 +3662,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G53" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3715,14 +3700,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 8565-2023</t>
+          <t>A 52617-2023</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44977</v>
+        <v>45219</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3734,8 +3719,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3772,14 +3762,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 37890-2024</t>
+          <t>A 21949-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45544.45065972222</v>
+        <v>44323.26083333333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3792,7 +3782,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3829,14 +3819,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 29750-2021</t>
+          <t>A 28244-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44362</v>
+        <v>44746</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3849,7 +3839,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3886,14 +3876,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21949-2021</t>
+          <t>A 49907-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44323.26083333333</v>
+        <v>45940.59828703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3906,7 +3896,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -3943,14 +3933,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 53586-2022</t>
+          <t>A 23785-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44875</v>
+        <v>45078.29748842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3962,13 +3952,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G58" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4005,14 +3990,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 16395-2023</t>
+          <t>A 46737-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45029.36196759259</v>
+        <v>45583.47193287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4025,7 +4010,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4062,14 +4047,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 2015-2023</t>
+          <t>A 52315-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44939</v>
+        <v>45608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4082,7 +4067,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4119,14 +4104,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28244-2022</t>
+          <t>A 16337-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44746</v>
+        <v>45751.36584490741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4139,7 +4124,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4176,14 +4161,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 7508-2025</t>
+          <t>A 16331-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45702</v>
+        <v>45751.36126157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4195,13 +4180,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4238,14 +4218,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 7510-2025</t>
+          <t>A 60498-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45702</v>
+        <v>45259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4263,7 +4243,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4300,14 +4280,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 35194-2023</t>
+          <t>A 53245-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45145.61299768519</v>
+        <v>45958.64665509259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4320,7 +4300,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4357,14 +4337,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38328-2023</t>
+          <t>A 12911-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45161.78365740741</v>
+        <v>45733.83363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4377,7 +4357,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.4</v>
+        <v>3.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4414,14 +4394,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12182-2022</t>
+          <t>A 12912-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44636.84741898148</v>
+        <v>45733</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4434,7 +4414,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.8</v>
+        <v>3.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4471,14 +4451,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 6948-2025</t>
+          <t>A 38319-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45701.47834490741</v>
+        <v>45545.66203703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4491,7 +4471,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4528,14 +4508,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 42435-2024</t>
+          <t>A 38324-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45565.42112268518</v>
+        <v>45161.77145833334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4548,7 +4528,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4585,14 +4565,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13267-2023</t>
+          <t>A 8704-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45003</v>
+        <v>45356.38424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4605,7 +4585,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4642,14 +4622,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 47258-2021</t>
+          <t>A 53294-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44446</v>
+        <v>45958.83685185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4661,8 +4641,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4699,14 +4684,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 23785-2023</t>
+          <t>A 21208-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45078.29748842592</v>
+        <v>45062.50630787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4719,7 +4704,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4756,14 +4741,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 46737-2024</t>
+          <t>A 11701-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45583.47193287037</v>
+        <v>44992</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4775,8 +4760,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4813,14 +4803,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61859-2023</t>
+          <t>A 52740-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45265</v>
+        <v>45610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4832,13 +4822,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4875,14 +4860,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32201-2024</t>
+          <t>A 2950-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45511.66358796296</v>
+        <v>44945.62488425926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4895,7 +4880,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -4932,14 +4917,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28751-2024</t>
+          <t>A 9368-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45478.57881944445</v>
+        <v>44981</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4952,7 +4937,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -4989,14 +4974,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 16337-2025</t>
+          <t>A 7508-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45751.36584490741</v>
+        <v>45702</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5008,8 +4993,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5046,14 +5036,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39080-2025</t>
+          <t>A 7510-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45888.48535879629</v>
+        <v>45702</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5065,8 +5055,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5103,14 +5098,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 52575-2023</t>
+          <t>A 35194-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45219</v>
+        <v>45145.61299768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5122,13 +5117,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>10.2</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5165,14 +5155,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52583-2023</t>
+          <t>A 38328-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45219</v>
+        <v>45161.78365740741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5184,13 +5174,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5227,14 +5212,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 16331-2025</t>
+          <t>A 57771-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45751.36126157407</v>
+        <v>45981</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5247,7 +5232,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5284,14 +5269,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 54095-2022</t>
+          <t>A 13267-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44879</v>
+        <v>45003</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5303,13 +5288,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5346,14 +5326,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 60498-2023</t>
+          <t>A 58849-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45259</v>
+        <v>45987.39408564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5365,13 +5345,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5408,14 +5383,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 40240-2025</t>
+          <t>A 28751-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45894.86383101852</v>
+        <v>45478.57881944445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5427,13 +5402,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5470,14 +5440,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 39113-2025</t>
+          <t>A 52575-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45888</v>
+        <v>45219</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5489,8 +5459,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>10.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5527,14 +5502,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12911-2025</t>
+          <t>A 52583-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45733.83363425926</v>
+        <v>45219</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5546,8 +5521,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5584,14 +5564,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12912-2025</t>
+          <t>A 3661-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45733</v>
+        <v>46043.38798611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5604,7 +5584,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5641,14 +5621,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 982-2025</t>
+          <t>A 52615-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45666.41855324074</v>
+        <v>45219</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5660,8 +5640,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5698,14 +5683,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 38319-2024</t>
+          <t>A 29867-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45545.66203703704</v>
+        <v>45107</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5718,7 +5703,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5755,14 +5740,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38324-2023</t>
+          <t>A 62588-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45161.77145833334</v>
+        <v>46007.87944444444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5775,7 +5760,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5812,14 +5797,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8704-2024</t>
+          <t>A 14473-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45356.38424768519</v>
+        <v>45394</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5832,7 +5817,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5869,14 +5854,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 52615-2023</t>
+          <t>A 55410-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45219</v>
+        <v>44882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5894,7 +5879,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -5931,14 +5916,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 28736-2024</t>
+          <t>A 28247-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45478.56774305556</v>
+        <v>44746</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5951,7 +5936,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -5988,14 +5973,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 28370-2024</t>
+          <t>A 38936-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45477.58034722223</v>
+        <v>45163.59946759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6008,7 +5993,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6045,14 +6030,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 51250-2024</t>
+          <t>A 62293-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45602</v>
+        <v>44923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6065,7 +6050,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6102,14 +6087,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21208-2023</t>
+          <t>A 62296-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45062.50630787037</v>
+        <v>44923.43637731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6122,7 +6107,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6159,14 +6144,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43566-2025</t>
+          <t>A 31802-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45911.63248842592</v>
+        <v>45106</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6178,8 +6163,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6216,14 +6206,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17321-2025</t>
+          <t>A 60504-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45756</v>
+        <v>45259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6235,8 +6225,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6273,14 +6268,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 29867-2023</t>
+          <t>A 10941-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45107</v>
+        <v>45370</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6292,8 +6287,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>6.2</v>
+        <v>0.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6330,14 +6330,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 46292-2025</t>
+          <t>A 1538-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45925.39194444445</v>
+        <v>46034</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6387,14 +6387,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 47289-2025</t>
+          <t>A 55416-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45930</v>
+        <v>44882</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6406,8 +6406,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6444,14 +6449,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 14473-2024</t>
+          <t>A 42454-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45394</v>
+        <v>45565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6464,7 +6469,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6501,14 +6506,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 28097-2025</t>
+          <t>A 4688-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45817</v>
+        <v>44592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6521,7 +6526,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.4</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6558,14 +6563,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 49907-2025</t>
+          <t>A 1164-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45940.59828703704</v>
+        <v>45302</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6578,7 +6583,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6615,14 +6620,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 52315-2024</t>
+          <t>A 11669-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45608</v>
+        <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6634,8 +6639,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6672,14 +6682,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55410-2022</t>
+          <t>A 60506-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44882</v>
+        <v>45259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6697,7 +6707,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6734,14 +6744,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 28247-2022</t>
+          <t>A 14632-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44746</v>
+        <v>45397.34383101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6791,14 +6801,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 38936-2023</t>
+          <t>A 7492-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45163.59946759259</v>
+        <v>45702</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6810,8 +6820,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6848,14 +6863,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 53245-2025</t>
+          <t>A 67669-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45958.64665509259</v>
+        <v>44524.90207175926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6868,7 +6883,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6905,14 +6920,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62293-2022</t>
+          <t>A 53875-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44923</v>
+        <v>45231</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6962,14 +6977,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62296-2022</t>
+          <t>A 23786-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44923.43637731481</v>
+        <v>45078.30322916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -6982,7 +6997,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7019,14 +7034,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53294-2025</t>
+          <t>A 8741-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45958.83685185185</v>
+        <v>45356.48212962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7038,13 +7053,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7081,14 +7091,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30063-2025</t>
+          <t>A 10742-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45826</v>
+        <v>45369.51898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7101,7 +7111,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7138,14 +7148,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34236-2025</t>
+          <t>A 29874-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45845.66458333333</v>
+        <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7158,7 +7168,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7195,14 +7205,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 31802-2023</t>
+          <t>A 11720-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45106</v>
+        <v>45373.64611111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7214,13 +7224,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7257,14 +7262,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 60504-2023</t>
+          <t>A 7509-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45259</v>
+        <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7282,7 +7287,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7319,14 +7324,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34907-2025</t>
+          <t>A 8565-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45849.52086805556</v>
+        <v>44977</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7339,7 +7344,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7376,14 +7381,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 10941-2024</t>
+          <t>A 37890-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45370</v>
+        <v>45544.45065972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7395,13 +7400,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7438,14 +7438,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 35922-2025</t>
+          <t>A 29750-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45862.5662962963</v>
+        <v>44362</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7495,14 +7495,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 57771-2025</t>
+          <t>A 16395-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45981</v>
+        <v>45029.36196759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7552,14 +7552,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 58849-2025</t>
+          <t>A 6948-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45987.39408564815</v>
+        <v>45701.47834490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7609,14 +7609,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 55416-2022</t>
+          <t>A 47258-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44882</v>
+        <v>44446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7628,13 +7628,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7671,14 +7666,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 42454-2024</t>
+          <t>A 61859-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45565</v>
+        <v>45265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7690,8 +7685,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7728,14 +7728,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 4688-2022</t>
+          <t>A 32201-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44592</v>
+        <v>45511.66358796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7748,7 +7748,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7785,14 +7785,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1164-2024</t>
+          <t>A 54095-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45302</v>
+        <v>44879</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7804,8 +7804,13 @@
           <t>PERSTORP</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G124" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7842,14 +7847,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 11669-2023</t>
+          <t>A 982-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44992</v>
+        <v>45666.41855324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7861,13 +7866,8 @@
           <t>PERSTORP</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7904,14 +7904,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 3661-2026</t>
+          <t>A 28736-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>46043.38798611111</v>
+        <v>45478.56774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7924,7 +7924,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -7961,14 +7961,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 62588-2025</t>
+          <t>A 28370-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46007.87944444444</v>
+        <v>45477.58034722223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -7981,7 +7981,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8018,14 +8018,14 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 1538-2026</t>
+          <t>A 17321-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>46034</v>
+        <v>45756</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46079</v>
+        <v>46081</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>

--- a/Översikt PERSTORP.xlsx
+++ b/Översikt PERSTORP.xlsx
@@ -575,7 +575,7 @@
         <v>45873</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,7 +661,7 @@
         <v>44845</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -746,7 +746,7 @@
         <v>45516.61791666667</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -831,7 +831,7 @@
         <v>46020</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -916,7 +916,7 @@
         <v>44451.88875</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -973,7 +973,7 @@
         <v>44446</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1030,7 +1030,7 @@
         <v>44365.46018518518</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         <v>44487</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1144,7 +1144,7 @@
         <v>44511.89311342593</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1201,7 +1201,7 @@
         <v>44259</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1263,7 +1263,7 @@
         <v>44286</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1320,7 +1320,7 @@
         <v>44287</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1377,7 +1377,7 @@
         <v>44305</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1439,7 +1439,7 @@
         <v>44362</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1496,7 +1496,7 @@
         <v>44494.99633101852</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1553,7 +1553,7 @@
         <v>44365.46269675926</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1610,7 +1610,7 @@
         <v>44287</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1667,7 +1667,7 @@
         <v>44305</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1729,7 +1729,7 @@
         <v>44473</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44739</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1843,7 +1843,7 @@
         <v>44469.58342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         <v>44369</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1962,7 +1962,7 @@
         <v>44467.29098379629</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2019,7 +2019,7 @@
         <v>44593</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2076,7 +2076,7 @@
         <v>44306</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         <v>44472.45936342593</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2195,7 +2195,7 @@
         <v>44845</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2252,7 +2252,7 @@
         <v>45302</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2309,7 +2309,7 @@
         <v>44362</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2371,7 +2371,7 @@
         <v>45235.41175925926</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2428,7 +2428,7 @@
         <v>44868</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2485,7 +2485,7 @@
         <v>44875</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2547,7 +2547,7 @@
         <v>45888.48535879629</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2604,7 +2604,7 @@
         <v>44939</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2661,7 +2661,7 @@
         <v>44636.84741898148</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         <v>45565.42112268518</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2775,7 +2775,7 @@
         <v>45817</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2832,7 +2832,7 @@
         <v>45894.86383101852</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>45888</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2951,7 +2951,7 @@
         <v>45259</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3013,7 +3013,7 @@
         <v>45602</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>45314</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3132,7 +3132,7 @@
         <v>45826</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3189,7 +3189,7 @@
         <v>45911.63248842592</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         <v>45845.66458333333</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45849.52086805556</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3360,7 +3360,7 @@
         <v>45161.7861574074</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3417,7 +3417,7 @@
         <v>44312.60537037037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>45701.64104166667</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3536,7 +3536,7 @@
         <v>45862.5662962963</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3593,7 +3593,7 @@
         <v>45925.39194444445</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3650,7 +3650,7 @@
         <v>45930</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3707,7 +3707,7 @@
         <v>45219</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3769,7 +3769,7 @@
         <v>44323.26083333333</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3826,7 +3826,7 @@
         <v>44746</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
         <v>45940.59828703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3940,7 +3940,7 @@
         <v>45078.29748842592</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3997,7 +3997,7 @@
         <v>45583.47193287037</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4054,7 +4054,7 @@
         <v>45608</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4111,7 +4111,7 @@
         <v>45751.36584490741</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4168,7 +4168,7 @@
         <v>45751.36126157407</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
         <v>45259</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         <v>45958.64665509259</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4344,7 +4344,7 @@
         <v>45733.83363425926</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4401,7 +4401,7 @@
         <v>45733</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>45545.66203703704</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4515,7 +4515,7 @@
         <v>45161.77145833334</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4572,7 +4572,7 @@
         <v>45356.38424768519</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4629,7 +4629,7 @@
         <v>45958.83685185185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4691,7 +4691,7 @@
         <v>45062.50630787037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4748,7 +4748,7 @@
         <v>44992</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4810,7 +4810,7 @@
         <v>45610</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4867,7 +4867,7 @@
         <v>44945.62488425926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4924,7 +4924,7 @@
         <v>44981</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4981,7 +4981,7 @@
         <v>45702</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5043,7 +5043,7 @@
         <v>45702</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5105,7 +5105,7 @@
         <v>45145.61299768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5162,7 +5162,7 @@
         <v>45161.78365740741</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5219,7 +5219,7 @@
         <v>45981</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5276,7 +5276,7 @@
         <v>45003</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         <v>45987.39408564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5390,7 +5390,7 @@
         <v>45478.57881944445</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5447,7 +5447,7 @@
         <v>45219</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         <v>45219</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         <v>46043.38798611111</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>45219</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5690,7 +5690,7 @@
         <v>45107</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5747,7 +5747,7 @@
         <v>46007.87944444444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5804,7 +5804,7 @@
         <v>45394</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5861,7 +5861,7 @@
         <v>44882</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5923,7 +5923,7 @@
         <v>44746</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
         <v>45163.59946759259</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6037,7 +6037,7 @@
         <v>44923</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6094,7 +6094,7 @@
         <v>44923.43637731481</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6151,7 +6151,7 @@
         <v>45106</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6213,7 +6213,7 @@
         <v>45259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6275,7 +6275,7 @@
         <v>45370</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>46034</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6394,7 +6394,7 @@
         <v>44882</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>45565</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6513,7 +6513,7 @@
         <v>44592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6570,7 +6570,7 @@
         <v>45302</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6627,7 +6627,7 @@
         <v>44992</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45259</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>45397.34383101852</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45702</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44524.90207175926</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>45231</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45078.30322916667</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45356.48212962963</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>45369.51898148148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>45107</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45373.64611111111</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45702</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44977</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>45544.45065972222</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44362</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>45029.36196759259</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>45701.47834490741</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>45265</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45511.66358796296</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>44879</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>45666.41855324074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>45478.56774305556</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>45477.58034722223</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>45756</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46081</v>
+        <v>46082</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
